--- a/capiq_data/in_process_data/IQ26524.xlsx
+++ b/capiq_data/in_process_data/IQ26524.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{583FF54B-8429-4A57-9DF2-91DFA6507E5D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDD3290E-1E0B-4539-B405-03BE1F18E46C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"87c02484-0f41-4411-9749-ef85ec3b0169"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"df0da849-a035-4fa2-9450-6d026c94421d"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ42000</t>
+  </si>
+  <si>
+    <t>FQ12001</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,34 +853,34 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>94.38</v>
+        <v>19.376999999999999</v>
       </c>
       <c r="D2">
-        <v>529.72400000000005</v>
+        <v>123.354</v>
       </c>
       <c r="E2">
-        <v>378.39499999999998</v>
+        <v>37.298999999999999</v>
       </c>
       <c r="F2">
-        <v>479.54599999999999</v>
+        <v>116.687</v>
       </c>
       <c r="G2">
-        <v>1470.479</v>
+        <v>586.73099999999999</v>
       </c>
       <c r="H2">
-        <v>3703.6</v>
+        <v>1112.5730000000001</v>
       </c>
       <c r="I2">
-        <v>65.841999999999999</v>
+        <v>26.221</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>330.49700000000001</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -772,78 +892,78 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1020.0119999999999</v>
+        <v>159.387</v>
       </c>
       <c r="O2">
-        <v>1143.0119999999999</v>
+        <v>519.69799999999998</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>330.49700000000001</v>
       </c>
       <c r="Q2">
-        <v>-2.8260000000000001</v>
+        <v>52.616999999999997</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="S2">
-        <v>5637</v>
+        <v>1400</v>
       </c>
       <c r="T2">
-        <v>2560.5880000000002</v>
+        <v>592.875</v>
       </c>
       <c r="U2">
-        <v>396.16199999999998</v>
+        <v>375.02499999999998</v>
       </c>
       <c r="V2">
-        <v>179.327</v>
+        <v>79.197000000000003</v>
       </c>
       <c r="W2">
         <v>0</v>
       </c>
       <c r="X2">
-        <v>-51.100999999999999</v>
+        <v>-18.318000000000001</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>-105.214</v>
+        <v>5.4969999999999999</v>
       </c>
       <c r="AA2">
-        <v>94.38</v>
+        <v>19.376999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>73.503</v>
+        <v>28.934999999999999</v>
       </c>
       <c r="D3">
-        <v>490.88799999999998</v>
+        <v>132.81200000000001</v>
       </c>
       <c r="E3">
-        <v>297.19</v>
+        <v>43.057000000000002</v>
       </c>
       <c r="F3">
-        <v>443.61</v>
+        <v>125.5</v>
       </c>
       <c r="G3">
-        <v>1431.8389999999999</v>
+        <v>539.34199999999998</v>
       </c>
       <c r="H3">
-        <v>3752.5650000000001</v>
+        <v>1159.8920000000001</v>
       </c>
       <c r="I3">
-        <v>47.61</v>
+        <v>78.998999999999995</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>334.78199999999998</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -852,81 +972,81 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>-10.926</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>974.06200000000001</v>
+        <v>167.84899999999999</v>
       </c>
       <c r="O3">
-        <v>1133.5909999999999</v>
+        <v>516.90499999999997</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>334.78199999999998</v>
       </c>
       <c r="Q3">
-        <v>119.178</v>
+        <v>-46.902000000000001</v>
       </c>
       <c r="R3">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>2618.9740000000002</v>
+        <v>642.98699999999997</v>
       </c>
       <c r="U3">
-        <v>515.34</v>
+        <v>328.12299999999999</v>
       </c>
       <c r="V3">
-        <v>159.22800000000001</v>
+        <v>56.875999999999998</v>
       </c>
       <c r="W3">
         <v>0</v>
       </c>
       <c r="X3">
-        <v>-61.838000000000001</v>
+        <v>-2.5609999999999999</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>164.67099999999999</v>
+        <v>-77.010999999999996</v>
       </c>
       <c r="AA3">
-        <v>73.503</v>
+        <v>28.934999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>81.944000000000003</v>
+        <v>22.893999999999998</v>
       </c>
       <c r="D4">
-        <v>530.79</v>
+        <v>147.274</v>
       </c>
       <c r="E4">
-        <v>338.73399999999998</v>
+        <v>55.595999999999997</v>
       </c>
       <c r="F4">
-        <v>471.49900000000002</v>
+        <v>140.05099999999999</v>
       </c>
       <c r="G4">
-        <v>1452.556</v>
+        <v>375.98</v>
       </c>
       <c r="H4">
-        <v>3869.6889999999999</v>
+        <v>1185.43</v>
       </c>
       <c r="I4">
-        <v>61.055999999999997</v>
+        <v>89.736000000000004</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>339.17099999999999</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -938,78 +1058,78 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1038.3050000000001</v>
+        <v>182.97800000000001</v>
       </c>
       <c r="O4">
-        <v>1206.2</v>
+        <v>532.99699999999996</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>339.17099999999999</v>
       </c>
       <c r="Q4">
-        <v>-84.524000000000001</v>
+        <v>-112.86199999999999</v>
       </c>
       <c r="R4">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>2663.489</v>
+        <v>652.43299999999999</v>
       </c>
       <c r="U4">
-        <v>430.81599999999997</v>
+        <v>215.261</v>
       </c>
       <c r="V4">
-        <v>162.297</v>
+        <v>57.36</v>
       </c>
       <c r="W4">
         <v>0</v>
       </c>
       <c r="X4">
-        <v>-58.866999999999997</v>
+        <v>-13.852</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>-149.50899999999999</v>
+        <v>25.11</v>
       </c>
       <c r="AA4">
-        <v>81.944000000000003</v>
+        <v>22.893999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>92.176000000000002</v>
+        <v>27.79</v>
       </c>
       <c r="D5">
-        <v>565.34799999999996</v>
+        <v>153.495</v>
       </c>
       <c r="E5">
-        <v>339.49400000000003</v>
+        <v>79.203000000000003</v>
       </c>
       <c r="F5">
-        <v>500.33800000000002</v>
+        <v>145.922</v>
       </c>
       <c r="G5">
-        <v>1311.6410000000001</v>
+        <v>353.13099999999997</v>
       </c>
       <c r="H5">
-        <v>3882.864</v>
+        <v>1211.934</v>
       </c>
       <c r="I5">
-        <v>57.49</v>
+        <v>98.989000000000004</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>343.57</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1021,78 +1141,78 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1050.7380000000001</v>
+        <v>187.809</v>
       </c>
       <c r="O5">
-        <v>1222.9390000000001</v>
+        <v>555.89300000000003</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>343.57</v>
       </c>
       <c r="Q5">
-        <v>-118.68600000000001</v>
+        <v>-53.036000000000001</v>
       </c>
       <c r="R5">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>2659.9250000000002</v>
+        <v>656.04100000000005</v>
       </c>
       <c r="U5">
-        <v>312.13</v>
+        <v>162.22499999999999</v>
       </c>
       <c r="V5">
-        <v>188.03399999999999</v>
+        <v>52.993000000000002</v>
       </c>
       <c r="W5">
         <v>0</v>
       </c>
       <c r="X5">
-        <v>-113.447</v>
+        <v>-21.23</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>33.863999999999997</v>
+        <v>-66.894999999999996</v>
       </c>
       <c r="AA5">
-        <v>92.176000000000002</v>
+        <v>27.79</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>108.699</v>
+        <v>25.640999999999998</v>
       </c>
       <c r="D6">
-        <v>619.36599999999999</v>
+        <v>158.048</v>
       </c>
       <c r="E6">
-        <v>484.43099999999998</v>
+        <v>65.031999999999996</v>
       </c>
       <c r="F6">
-        <v>552.08699999999999</v>
+        <v>150.30699999999999</v>
       </c>
       <c r="G6">
-        <v>1373.03</v>
+        <v>346.05500000000001</v>
       </c>
       <c r="H6">
-        <v>4099.5410000000002</v>
+        <v>1208.23</v>
       </c>
       <c r="I6">
-        <v>58.033999999999999</v>
+        <v>38.164999999999999</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>346.214</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1104,78 +1224,78 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1179.1300000000001</v>
+        <v>192.501</v>
       </c>
       <c r="O6">
-        <v>1369.0509999999999</v>
+        <v>560.9</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>346.214</v>
       </c>
       <c r="Q6">
-        <v>21.166</v>
+        <v>-22.532</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="S6">
-        <v>6936</v>
+        <v>1880</v>
       </c>
       <c r="T6">
-        <v>2730.49</v>
+        <v>647.33000000000004</v>
       </c>
       <c r="U6">
-        <v>333.29599999999999</v>
+        <v>139.69300000000001</v>
       </c>
       <c r="V6">
-        <v>169.56299999999999</v>
+        <v>62.613999999999997</v>
       </c>
       <c r="W6">
         <v>0</v>
       </c>
       <c r="X6">
-        <v>-58.462000000000003</v>
+        <v>-45.363999999999997</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>82.539000000000001</v>
+        <v>-19.061</v>
       </c>
       <c r="AA6">
-        <v>108.699</v>
+        <v>25.640999999999998</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>68.266999999999996</v>
+        <v>26.689</v>
       </c>
       <c r="D7">
-        <v>589.495</v>
+        <v>142.31</v>
       </c>
       <c r="E7">
-        <v>389.80700000000002</v>
+        <v>79.504000000000005</v>
       </c>
       <c r="F7">
-        <v>519.68700000000001</v>
+        <v>137.55799999999999</v>
       </c>
       <c r="G7">
-        <v>1423.729</v>
+        <v>333.95400000000001</v>
       </c>
       <c r="H7">
-        <v>4151.1180000000004</v>
+        <v>1177.4880000000001</v>
       </c>
       <c r="I7">
-        <v>53.939</v>
+        <v>101.496</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>345.49799999999999</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1184,81 +1304,81 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>-2.456</v>
+        <v>-5.0750000000000002</v>
       </c>
       <c r="N7">
-        <v>1171.8610000000001</v>
+        <v>179.38399999999999</v>
       </c>
       <c r="O7">
-        <v>1373.585</v>
+        <v>536.21</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>345.49799999999999</v>
       </c>
       <c r="Q7">
-        <v>57.585000000000001</v>
+        <v>-55.122999999999998</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>2777.5329999999999</v>
+        <v>641.27800000000002</v>
       </c>
       <c r="U7">
-        <v>390.88099999999997</v>
+        <v>84.57</v>
       </c>
       <c r="V7">
-        <v>243.07</v>
+        <v>27.901</v>
       </c>
       <c r="W7">
         <v>0</v>
       </c>
       <c r="X7">
-        <v>-71.697000000000003</v>
+        <v>-54.393999999999998</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>-67.867000000000004</v>
+        <v>-9.7319999999999993</v>
       </c>
       <c r="AA7">
-        <v>68.266999999999996</v>
+        <v>26.689</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>92.006</v>
+        <v>10.849</v>
       </c>
       <c r="D8">
-        <v>615.21</v>
+        <v>117.456</v>
       </c>
       <c r="E8">
-        <v>404.21199999999999</v>
+        <v>69.665000000000006</v>
       </c>
       <c r="F8">
-        <v>537.952</v>
+        <v>112.69799999999999</v>
       </c>
       <c r="G8">
-        <v>1875.6759999999999</v>
+        <v>357.44200000000001</v>
       </c>
       <c r="H8">
-        <v>4329.0159999999996</v>
+        <v>1201.4690000000001</v>
       </c>
       <c r="I8">
-        <v>61.709000000000003</v>
+        <v>94.122</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>350.02699999999999</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1270,78 +1390,78 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1134.153</v>
+        <v>175.148</v>
       </c>
       <c r="O8">
-        <v>1399.0340000000001</v>
+        <v>531.91300000000001</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>350.02699999999999</v>
       </c>
       <c r="Q8">
-        <v>570.95899999999995</v>
+        <v>8.7309999999999999</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>2929.982</v>
+        <v>669.55600000000004</v>
       </c>
       <c r="U8">
-        <v>961.84</v>
+        <v>93.301000000000002</v>
       </c>
       <c r="V8">
-        <v>167.744</v>
+        <v>32.880000000000003</v>
       </c>
       <c r="W8">
         <v>0</v>
       </c>
       <c r="X8">
-        <v>35.42</v>
+        <v>-9.9670000000000005</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>469.637</v>
+        <v>-9.8529999999999998</v>
       </c>
       <c r="AA8">
-        <v>92.006</v>
+        <v>10.849</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>78.245000000000005</v>
+        <v>16.815000000000001</v>
       </c>
       <c r="D9">
-        <v>641.42200000000003</v>
+        <v>118.898</v>
       </c>
       <c r="E9">
-        <v>456.54500000000002</v>
+        <v>51.895000000000003</v>
       </c>
       <c r="F9">
-        <v>558.28399999999999</v>
+        <v>114.523</v>
       </c>
       <c r="G9">
-        <v>1319.5139999999999</v>
+        <v>364.05099999999999</v>
       </c>
       <c r="H9">
-        <v>4489.1530000000002</v>
+        <v>1108.8579999999999</v>
       </c>
       <c r="I9">
-        <v>68.213999999999999</v>
+        <v>82.950999999999993</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>329.34699999999998</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1353,78 +1473,78 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1165.874</v>
+        <v>168.94900000000001</v>
       </c>
       <c r="O9">
-        <v>1453.115</v>
+        <v>509.67399999999998</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>329.34699999999998</v>
       </c>
       <c r="Q9">
-        <v>-637.71299999999997</v>
+        <v>24.259</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>3036.038</v>
+        <v>599.18399999999997</v>
       </c>
       <c r="U9">
-        <v>324.12700000000001</v>
+        <v>117.56</v>
       </c>
       <c r="V9">
-        <v>180.99199999999999</v>
+        <v>63.713999999999999</v>
       </c>
       <c r="W9">
         <v>0</v>
       </c>
       <c r="X9">
-        <v>-51.722000000000001</v>
+        <v>-105.47499999999999</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>-327.47300000000001</v>
+        <v>70.575000000000003</v>
       </c>
       <c r="AA9">
-        <v>78.245000000000005</v>
+        <v>16.815000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>114.029</v>
+        <v>39.567</v>
       </c>
       <c r="D10">
-        <v>739.99599999999998</v>
+        <v>148.78399999999999</v>
       </c>
       <c r="E10">
-        <v>630.95600000000002</v>
+        <v>69.471000000000004</v>
       </c>
       <c r="F10">
-        <v>646.08799999999997</v>
+        <v>143.63900000000001</v>
       </c>
       <c r="G10">
-        <v>1713.7349999999999</v>
+        <v>375.29899999999998</v>
       </c>
       <c r="H10">
-        <v>4796.402</v>
+        <v>1161.5309999999999</v>
       </c>
       <c r="I10">
-        <v>71.116</v>
+        <v>41.311</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>333.54899999999998</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1436,75 +1556,75 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1342.873</v>
+        <v>188.88900000000001</v>
       </c>
       <c r="O10">
-        <v>1674.625</v>
+        <v>546.94100000000003</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>333.54899999999998</v>
       </c>
       <c r="Q10">
-        <v>319.48200000000003</v>
+        <v>25.14</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="S10">
-        <v>8212</v>
+        <v>1670</v>
       </c>
       <c r="T10">
-        <v>3121.777</v>
+        <v>614.59</v>
       </c>
       <c r="U10">
-        <v>643.60900000000004</v>
+        <v>142.69999999999999</v>
       </c>
       <c r="V10">
-        <v>226.721</v>
+        <v>62.607999999999997</v>
       </c>
       <c r="W10">
         <v>0</v>
       </c>
       <c r="X10">
-        <v>-61.783000000000001</v>
+        <v>-14.35</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>202.25200000000001</v>
+        <v>-22.018000000000001</v>
       </c>
       <c r="AA10">
-        <v>114.029</v>
+        <v>39.567</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>59.688000000000002</v>
+        <v>30.329000000000001</v>
       </c>
       <c r="D11">
-        <v>672.899</v>
+        <v>143.49100000000001</v>
       </c>
       <c r="E11">
-        <v>450.93900000000002</v>
+        <v>68.733000000000004</v>
       </c>
       <c r="F11">
-        <v>582.69399999999996</v>
+        <v>138.76</v>
       </c>
       <c r="G11">
-        <v>1301.4749999999999</v>
+        <v>561.73</v>
       </c>
       <c r="H11">
-        <v>4848.3389999999999</v>
+        <v>1153.7729999999999</v>
       </c>
       <c r="I11">
-        <v>61.613</v>
+        <v>89.826999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1519,75 +1639,75 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1304.45</v>
+        <v>536.09900000000005</v>
       </c>
       <c r="O11">
-        <v>1654.192</v>
+        <v>548.45299999999997</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>338.00400000000002</v>
       </c>
       <c r="Q11">
-        <v>-392.14400000000001</v>
+        <v>0.44400000000000001</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>3194.1469999999999</v>
+        <v>605.32000000000005</v>
       </c>
       <c r="U11">
-        <v>251.465</v>
+        <v>151.81899999999999</v>
       </c>
       <c r="V11">
-        <v>266.798</v>
+        <v>59.408999999999999</v>
       </c>
       <c r="W11">
         <v>0</v>
       </c>
       <c r="X11">
-        <v>-28.890999999999998</v>
+        <v>-55.110999999999997</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>-275.01100000000002</v>
+        <v>-2.08</v>
       </c>
       <c r="AA11">
-        <v>59.688000000000002</v>
+        <v>30.329000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>64.460999999999999</v>
+        <v>29.344000000000001</v>
       </c>
       <c r="D12">
-        <v>730.38400000000001</v>
+        <v>143.04900000000001</v>
       </c>
       <c r="E12">
-        <v>493.67099999999999</v>
+        <v>84.245999999999995</v>
       </c>
       <c r="F12">
-        <v>627.48599999999999</v>
+        <v>138.01300000000001</v>
       </c>
       <c r="G12">
-        <v>1371.3579999999999</v>
+        <v>647.68899999999996</v>
       </c>
       <c r="H12">
-        <v>4996.0110000000004</v>
+        <v>1230.414</v>
       </c>
       <c r="I12">
-        <v>72.613</v>
+        <v>97.316999999999993</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -1602,75 +1722,75 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1350.6220000000001</v>
+        <v>564.80499999999995</v>
       </c>
       <c r="O12">
-        <v>1719.8219999999999</v>
+        <v>573.40200000000004</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>342.43400000000003</v>
       </c>
       <c r="Q12">
-        <v>11.688000000000001</v>
+        <v>3.2650000000000001</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>3276.1889999999999</v>
+        <v>657.01199999999994</v>
       </c>
       <c r="U12">
-        <v>263.15300000000002</v>
+        <v>248.22200000000001</v>
       </c>
       <c r="V12">
-        <v>208.90199999999999</v>
+        <v>54.402999999999999</v>
       </c>
       <c r="W12">
         <v>0</v>
       </c>
       <c r="X12">
-        <v>-49.134</v>
+        <v>10.323</v>
       </c>
       <c r="Y12">
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>-105.96899999999999</v>
+        <v>-58.976999999999997</v>
       </c>
       <c r="AA12">
-        <v>64.460999999999999</v>
+        <v>29.344000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>76.73</v>
+        <v>30.995000000000001</v>
       </c>
       <c r="D13">
-        <v>712.73099999999999</v>
+        <v>144.34100000000001</v>
       </c>
       <c r="E13">
-        <v>450.39499999999998</v>
+        <v>85.563000000000002</v>
       </c>
       <c r="F13">
-        <v>613.12800000000004</v>
+        <v>138.99100000000001</v>
       </c>
       <c r="G13">
-        <v>1328.806</v>
+        <v>691.33</v>
       </c>
       <c r="H13">
-        <v>5123.9889999999996</v>
+        <v>1243.816</v>
       </c>
       <c r="I13">
-        <v>68.646000000000001</v>
+        <v>97.738</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -1685,75 +1805,75 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1340.595</v>
+        <v>583.28200000000004</v>
       </c>
       <c r="O13">
-        <v>1723.1890000000001</v>
+        <v>594.07899999999995</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>346.87599999999998</v>
       </c>
       <c r="Q13">
-        <v>-16.68</v>
+        <v>11.257999999999999</v>
       </c>
       <c r="R13">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>3400.8</v>
+        <v>649.73699999999997</v>
       </c>
       <c r="U13">
-        <v>246.47300000000001</v>
+        <v>264.46899999999999</v>
       </c>
       <c r="V13">
-        <v>222.94900000000001</v>
+        <v>72.58</v>
       </c>
       <c r="W13">
         <v>0</v>
       </c>
       <c r="X13">
-        <v>-20.25</v>
+        <v>-44.564999999999998</v>
       </c>
       <c r="Y13">
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>-152.624</v>
+        <v>-12.680999999999999</v>
       </c>
       <c r="AA13">
-        <v>76.73</v>
+        <v>30.995000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>138.64400000000001</v>
+        <v>36.274999999999999</v>
       </c>
       <c r="D14">
-        <v>802.42</v>
+        <v>157.744</v>
       </c>
       <c r="E14">
-        <v>654.82100000000003</v>
+        <v>87.463999999999999</v>
       </c>
       <c r="F14">
-        <v>690.20399999999995</v>
+        <v>152.82499999999999</v>
       </c>
       <c r="G14">
-        <v>1563.095</v>
+        <v>765.57100000000003</v>
       </c>
       <c r="H14">
-        <v>5212.2489999999998</v>
+        <v>1344.9390000000001</v>
       </c>
       <c r="I14">
-        <v>78.451999999999998</v>
+        <v>41.710999999999999</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1768,75 +1888,75 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1464.0609999999999</v>
+        <v>618.81700000000001</v>
       </c>
       <c r="O14">
-        <v>1892.442</v>
+        <v>638.14099999999996</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>351.423</v>
       </c>
       <c r="Q14">
-        <v>34.267000000000003</v>
+        <v>85.652000000000001</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="S14">
-        <v>9166</v>
+        <v>1885</v>
       </c>
       <c r="T14">
-        <v>3319.8069999999998</v>
+        <v>706.798</v>
       </c>
       <c r="U14">
-        <v>280.74</v>
+        <v>182.96899999999999</v>
       </c>
       <c r="V14">
-        <v>229.69399999999999</v>
+        <v>69.039000000000001</v>
       </c>
       <c r="W14">
         <v>0</v>
       </c>
       <c r="X14">
-        <v>-254.006</v>
+        <v>23.864999999999998</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>105.377</v>
+        <v>-1.593</v>
       </c>
       <c r="AA14">
-        <v>138.64400000000001</v>
+        <v>36.274999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>55.939</v>
+        <v>9.3249999999999993</v>
       </c>
       <c r="D15">
-        <v>750.81899999999996</v>
+        <v>161.31</v>
       </c>
       <c r="E15">
-        <v>510.86200000000002</v>
+        <v>67.646000000000001</v>
       </c>
       <c r="F15">
-        <v>640.79899999999998</v>
+        <v>157.07400000000001</v>
       </c>
       <c r="G15">
-        <v>1538.9010000000001</v>
+        <v>365.28699999999998</v>
       </c>
       <c r="H15">
-        <v>5269.473</v>
+        <v>1151.549</v>
       </c>
       <c r="I15">
-        <v>76.661000000000001</v>
+        <v>106.742</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1848,81 +1968,81 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>-3.766</v>
+        <v>-355.65899999999999</v>
       </c>
       <c r="N15">
-        <v>1449.5360000000001</v>
+        <v>279.44900000000001</v>
       </c>
       <c r="O15">
-        <v>1855.4559999999999</v>
+        <v>305.72199999999998</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>17.779</v>
+        <v>-51.408000000000001</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="S15">
-        <v>9041</v>
+        <v>0</v>
       </c>
       <c r="T15">
-        <v>3414.0169999999998</v>
+        <v>845.827</v>
       </c>
       <c r="U15">
-        <v>298.51900000000001</v>
+        <v>131.56100000000001</v>
       </c>
       <c r="V15">
-        <v>287.87599999999998</v>
+        <v>77.965999999999994</v>
       </c>
       <c r="W15">
         <v>0</v>
       </c>
       <c r="X15">
-        <v>4.2080000000000002</v>
+        <v>-345.42399999999998</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>-219.67699999999999</v>
+        <v>312.392</v>
       </c>
       <c r="AA15">
-        <v>55.939</v>
+        <v>9.3249999999999993</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>53.024000000000001</v>
+        <v>31.475000000000001</v>
       </c>
       <c r="D16">
-        <v>781.56</v>
+        <v>178.30199999999999</v>
       </c>
       <c r="E16">
-        <v>506.40899999999999</v>
+        <v>86.478999999999999</v>
       </c>
       <c r="F16">
-        <v>660.69899999999996</v>
+        <v>173.37700000000001</v>
       </c>
       <c r="G16">
-        <v>1541.57</v>
+        <v>362.072</v>
       </c>
       <c r="H16">
-        <v>5249.2160000000003</v>
+        <v>1158.1030000000001</v>
       </c>
       <c r="I16">
-        <v>79.620999999999995</v>
+        <v>107.682</v>
       </c>
       <c r="J16">
-        <v>1277.289</v>
+        <v>0</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1934,78 +2054,78 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1475.595</v>
+        <v>291.68400000000003</v>
       </c>
       <c r="O16">
-        <v>3145.319</v>
+        <v>310.90800000000002</v>
       </c>
       <c r="P16">
-        <v>1277.289</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>-19.117000000000001</v>
+        <v>-24.876999999999999</v>
       </c>
       <c r="R16">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>2103.8969999999999</v>
+        <v>847.19500000000005</v>
       </c>
       <c r="U16">
-        <v>279.40199999999999</v>
+        <v>106.684</v>
       </c>
       <c r="V16">
-        <v>203.54</v>
+        <v>44.889000000000003</v>
       </c>
       <c r="W16">
         <v>0</v>
       </c>
       <c r="X16">
-        <v>-177.50899999999999</v>
+        <v>-33.533000000000001</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>17.567</v>
+        <v>-17.146999999999998</v>
       </c>
       <c r="AA16">
-        <v>53.024000000000001</v>
+        <v>31.475000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>47.531999999999996</v>
+        <v>38.448</v>
       </c>
       <c r="D17">
-        <v>758.99400000000003</v>
+        <v>187.578</v>
       </c>
       <c r="E17">
-        <v>465.55799999999999</v>
+        <v>90.114999999999995</v>
       </c>
       <c r="F17">
-        <v>646.96799999999996</v>
+        <v>182.18199999999999</v>
       </c>
       <c r="G17">
-        <v>1444.71</v>
+        <v>376.77699999999999</v>
       </c>
       <c r="H17">
-        <v>5231.4769999999999</v>
+        <v>1173.83</v>
       </c>
       <c r="I17">
-        <v>85.802000000000007</v>
+        <v>102.661</v>
       </c>
       <c r="J17">
-        <v>1285.0920000000001</v>
+        <v>0</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -2017,78 +2137,78 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1462.4469999999999</v>
+        <v>293.55500000000001</v>
       </c>
       <c r="O17">
-        <v>3135.1390000000001</v>
+        <v>314.31099999999998</v>
       </c>
       <c r="P17">
-        <v>1285.0920000000001</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>-36.615000000000002</v>
+        <v>-13.861000000000001</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>2096.3380000000002</v>
+        <v>859.51900000000001</v>
       </c>
       <c r="U17">
-        <v>242.78700000000001</v>
+        <v>92.822999999999993</v>
       </c>
       <c r="V17">
-        <v>164.13399999999999</v>
+        <v>62.216999999999999</v>
       </c>
       <c r="W17">
         <v>0</v>
       </c>
       <c r="X17">
-        <v>-82.227999999999994</v>
+        <v>-34.249000000000002</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>-62.64</v>
+        <v>-30.425000000000001</v>
       </c>
       <c r="AA17">
-        <v>47.531999999999996</v>
+        <v>38.448</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>95.227999999999994</v>
+        <v>52.298000000000002</v>
       </c>
       <c r="D18">
-        <v>851.48299999999995</v>
+        <v>213.96700000000001</v>
       </c>
       <c r="E18">
-        <v>674.40099999999995</v>
+        <v>108.399</v>
       </c>
       <c r="F18">
-        <v>720.59699999999998</v>
+        <v>208.22800000000001</v>
       </c>
       <c r="G18">
-        <v>1688.3240000000001</v>
+        <v>426.58</v>
       </c>
       <c r="H18">
-        <v>5512.0069999999996</v>
+        <v>1286.0840000000001</v>
       </c>
       <c r="I18">
-        <v>79.884</v>
+        <v>17.553999999999998</v>
       </c>
       <c r="J18">
-        <v>1292.953</v>
+        <v>0</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -2100,161 +2220,161 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1590.1089999999999</v>
+        <v>342.15899999999999</v>
       </c>
       <c r="O18">
-        <v>3338.3620000000001</v>
+        <v>361.17899999999997</v>
       </c>
       <c r="P18">
-        <v>1292.953</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>17.361999999999998</v>
+        <v>-19.338000000000001</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="S18">
-        <v>10081</v>
+        <v>2656</v>
       </c>
       <c r="T18">
-        <v>2173.645</v>
+        <v>924.90499999999997</v>
       </c>
       <c r="U18">
-        <v>260.149</v>
+        <v>73.484999999999999</v>
       </c>
       <c r="V18">
-        <v>190.43100000000001</v>
+        <v>80.209000000000003</v>
       </c>
       <c r="W18">
         <v>0</v>
       </c>
       <c r="X18">
-        <v>-37.139000000000003</v>
+        <v>-0.89300000000000002</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>-24.555</v>
+        <v>-43.502000000000002</v>
       </c>
       <c r="AA18">
-        <v>95.227999999999994</v>
+        <v>52.298000000000002</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>28.887</v>
+        <v>38.56</v>
       </c>
       <c r="D19">
-        <v>760.80200000000002</v>
+        <v>201.89</v>
       </c>
       <c r="E19">
-        <v>438.17700000000002</v>
+        <v>85.459000000000003</v>
       </c>
       <c r="F19">
-        <v>646.928</v>
+        <v>196.00700000000001</v>
       </c>
       <c r="G19">
-        <v>1668.6559999999999</v>
+        <v>472.315</v>
       </c>
       <c r="H19">
-        <v>5454.6360000000004</v>
+        <v>1290.2249999999999</v>
       </c>
       <c r="I19">
-        <v>81.108999999999995</v>
+        <v>15.196</v>
       </c>
       <c r="J19">
-        <v>1300.8720000000001</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>-3.1749999999999998</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>1633.9380000000001</v>
+        <v>336.459</v>
       </c>
       <c r="O19">
-        <v>3354.3049999999998</v>
+        <v>354.56</v>
       </c>
       <c r="P19">
-        <v>1395.8720000000001</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>142.78399999999999</v>
+        <v>47.462000000000003</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>2100.3310000000001</v>
+        <v>935.66499999999996</v>
       </c>
       <c r="U19">
-        <v>402.93299999999999</v>
+        <v>120.947</v>
       </c>
       <c r="V19">
-        <v>291.87099999999998</v>
+        <v>73.400000000000006</v>
       </c>
       <c r="W19">
         <v>0</v>
       </c>
       <c r="X19">
-        <v>-42.933</v>
+        <v>-27.222000000000001</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>37.853000000000002</v>
+        <v>5.6059999999999999</v>
       </c>
       <c r="AA19">
-        <v>28.887</v>
+        <v>38.56</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>103.27500000000001</v>
+        <v>27.885999999999999</v>
       </c>
       <c r="D20">
-        <v>796.75900000000001</v>
+        <v>211.22900000000001</v>
       </c>
       <c r="E20">
-        <v>500.976</v>
+        <v>98.861000000000004</v>
       </c>
       <c r="F20">
-        <v>682.73599999999999</v>
+        <v>203.55699999999999</v>
       </c>
       <c r="G20">
-        <v>1589.2829999999999</v>
+        <v>565.45500000000004</v>
       </c>
       <c r="H20">
-        <v>5501.9750000000004</v>
+        <v>1383.7349999999999</v>
       </c>
       <c r="I20">
-        <v>81.965999999999994</v>
+        <v>17.388999999999999</v>
       </c>
       <c r="J20">
-        <v>1308.8520000000001</v>
+        <v>0</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -2266,78 +2386,78 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1524.318</v>
+        <v>377.81</v>
       </c>
       <c r="O20">
-        <v>3277.14</v>
+        <v>394.46800000000002</v>
       </c>
       <c r="P20">
-        <v>1308.8520000000001</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>-40.619999999999997</v>
+        <v>86.725999999999999</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>2224.835</v>
+        <v>989.26700000000005</v>
       </c>
       <c r="U20">
-        <v>362.31299999999999</v>
+        <v>207.673</v>
       </c>
       <c r="V20">
-        <v>201.14699999999999</v>
+        <v>65.102000000000004</v>
       </c>
       <c r="W20">
         <v>0</v>
       </c>
       <c r="X20">
-        <v>-119.746</v>
+        <v>21.957000000000001</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>81.549000000000007</v>
+        <v>7.3849999999999998</v>
       </c>
       <c r="AA20">
-        <v>103.27500000000001</v>
+        <v>27.885999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>55.924999999999997</v>
+        <v>40.953000000000003</v>
       </c>
       <c r="D21">
-        <v>813.27</v>
+        <v>226.947</v>
       </c>
       <c r="E21">
-        <v>467.815</v>
+        <v>111.13</v>
       </c>
       <c r="F21">
-        <v>687.11599999999999</v>
+        <v>215.50800000000001</v>
       </c>
       <c r="G21">
-        <v>1737.1379999999999</v>
+        <v>695.654</v>
       </c>
       <c r="H21">
-        <v>5405.4830000000002</v>
+        <v>1612.9369999999999</v>
       </c>
       <c r="I21">
-        <v>143.29900000000001</v>
+        <v>17.791</v>
       </c>
       <c r="J21">
-        <v>1316.8920000000001</v>
+        <v>75</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -2349,78 +2469,78 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1547.5419999999999</v>
+        <v>399.32600000000002</v>
       </c>
       <c r="O21">
-        <v>3320.7910000000002</v>
+        <v>491.87700000000001</v>
       </c>
       <c r="P21">
-        <v>1316.8920000000001</v>
+        <v>75</v>
       </c>
       <c r="Q21">
-        <v>165.28100000000001</v>
+        <v>300.55799999999999</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>2084.692</v>
+        <v>1121.06</v>
       </c>
       <c r="U21">
-        <v>527.59400000000005</v>
+        <v>508.23099999999999</v>
       </c>
       <c r="V21">
-        <v>259.79500000000002</v>
+        <v>75.405000000000001</v>
       </c>
       <c r="W21">
         <v>0</v>
       </c>
       <c r="X21">
-        <v>-193.73699999999999</v>
+        <v>5.665</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>145.55500000000001</v>
+        <v>360.82299999999998</v>
       </c>
       <c r="AA21">
-        <v>55.924999999999997</v>
+        <v>40.953000000000003</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>131.274</v>
+        <v>58.21</v>
       </c>
       <c r="D22">
-        <v>904.76300000000003</v>
+        <v>268.65600000000001</v>
       </c>
       <c r="E22">
-        <v>669.27599999999995</v>
+        <v>142.01499999999999</v>
       </c>
       <c r="F22">
-        <v>775.63300000000004</v>
+        <v>252.31700000000001</v>
       </c>
       <c r="G22">
-        <v>1683.951</v>
+        <v>727.40899999999999</v>
       </c>
       <c r="H22">
-        <v>5467.5169999999998</v>
+        <v>1698.982</v>
       </c>
       <c r="I22">
-        <v>95.396000000000001</v>
+        <v>33.494999999999997</v>
       </c>
       <c r="J22">
-        <v>1311.0709999999999</v>
+        <v>31</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -2432,78 +2552,78 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1680.9690000000001</v>
+        <v>432.35399999999998</v>
       </c>
       <c r="O22">
-        <v>3494.0709999999999</v>
+        <v>484.45400000000001</v>
       </c>
       <c r="P22">
-        <v>1311.0709999999999</v>
+        <v>31</v>
       </c>
       <c r="Q22">
-        <v>-159.07599999999999</v>
+        <v>-24.196000000000002</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="S22">
-        <v>9500</v>
+        <v>3171</v>
       </c>
       <c r="T22">
-        <v>1973.4459999999999</v>
+        <v>1214.528</v>
       </c>
       <c r="U22">
-        <v>368.51799999999997</v>
+        <v>484.03500000000003</v>
       </c>
       <c r="V22">
-        <v>281.73500000000001</v>
+        <v>79.236000000000004</v>
       </c>
       <c r="W22">
         <v>0</v>
       </c>
       <c r="X22">
-        <v>-335.03500000000003</v>
+        <v>-43.256</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>-58.97</v>
+        <v>-18.827000000000002</v>
       </c>
       <c r="AA22">
-        <v>131.274</v>
+        <v>58.21</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>83.462999999999994</v>
+        <v>41.463000000000001</v>
       </c>
       <c r="D23">
-        <v>658.77300000000002</v>
+        <v>259.99799999999999</v>
       </c>
       <c r="E23">
-        <v>450</v>
+        <v>116.41800000000001</v>
       </c>
       <c r="F23">
-        <v>573.01900000000001</v>
+        <v>242.87</v>
       </c>
       <c r="G23">
-        <v>1787.57</v>
+        <v>781.46199999999999</v>
       </c>
       <c r="H23">
-        <v>5518.6890000000003</v>
+        <v>1776.8589999999999</v>
       </c>
       <c r="I23">
-        <v>85.49</v>
+        <v>35.296999999999997</v>
       </c>
       <c r="J23">
-        <v>1320.24</v>
+        <v>0</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -2512,81 +2632,81 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>-31</v>
       </c>
       <c r="N23">
-        <v>1624.2639999999999</v>
+        <v>429.17</v>
       </c>
       <c r="O23">
-        <v>3450.6089999999999</v>
+        <v>448.78199999999998</v>
       </c>
       <c r="P23">
-        <v>1320.24</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>144.78800000000001</v>
+        <v>-60.843000000000004</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>2068.08</v>
+        <v>1328.077</v>
       </c>
       <c r="U23">
-        <v>513.30600000000004</v>
+        <v>423.19200000000001</v>
       </c>
       <c r="V23">
-        <v>339.96499999999997</v>
+        <v>97.400999999999996</v>
       </c>
       <c r="W23">
         <v>0</v>
       </c>
       <c r="X23">
-        <v>-39.204000000000001</v>
+        <v>33.51</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>-93.231999999999999</v>
+        <v>-182.386</v>
       </c>
       <c r="AA23">
-        <v>83.462999999999994</v>
+        <v>41.463000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>120.898</v>
+        <v>44.970999999999997</v>
       </c>
       <c r="D24">
-        <v>673.98699999999997</v>
+        <v>275.46800000000002</v>
       </c>
       <c r="E24">
-        <v>504.42</v>
+        <v>136.17500000000001</v>
       </c>
       <c r="F24">
-        <v>581.18600000000004</v>
+        <v>255.81200000000001</v>
       </c>
       <c r="G24">
-        <v>2001.7909999999999</v>
+        <v>862.73099999999999</v>
       </c>
       <c r="H24">
-        <v>5714.2139999999999</v>
+        <v>1991.933</v>
       </c>
       <c r="I24">
-        <v>72.638999999999996</v>
+        <v>38.252000000000002</v>
       </c>
       <c r="J24">
-        <v>1329.4780000000001</v>
+        <v>0</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -2598,75 +2718,75 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1626.683</v>
+        <v>450.46</v>
       </c>
       <c r="O24">
-        <v>3472.1689999999999</v>
+        <v>472.46699999999998</v>
       </c>
       <c r="P24">
-        <v>1329.4780000000001</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>152.92599999999999</v>
+        <v>-78.602999999999994</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>2242.0450000000001</v>
+        <v>1519.4659999999999</v>
       </c>
       <c r="U24">
-        <v>666.23199999999997</v>
+        <v>344.589</v>
       </c>
       <c r="V24">
-        <v>228.36199999999999</v>
+        <v>63.106000000000002</v>
       </c>
       <c r="W24">
         <v>0</v>
       </c>
       <c r="X24">
-        <v>7.54</v>
+        <v>123.304</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>-45.234000000000002</v>
+        <v>-239.51599999999999</v>
       </c>
       <c r="AA24">
-        <v>120.898</v>
+        <v>44.970999999999997</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>131.90100000000001</v>
+        <v>43.66</v>
       </c>
       <c r="D25">
-        <v>668.73599999999999</v>
+        <v>277.851</v>
       </c>
       <c r="E25">
-        <v>475.08499999999998</v>
+        <v>149.34299999999999</v>
       </c>
       <c r="F25">
-        <v>585.34</v>
+        <v>258.16399999999999</v>
       </c>
       <c r="G25">
-        <v>2272.3870000000002</v>
+        <v>701.59900000000005</v>
       </c>
       <c r="H25">
-        <v>5922.5029999999997</v>
+        <v>1956.847</v>
       </c>
       <c r="I25">
-        <v>85.655000000000001</v>
+        <v>38.917000000000002</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -2681,75 +2801,75 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>2949.826</v>
+        <v>453.85599999999999</v>
       </c>
       <c r="O25">
-        <v>3570.7669999999998</v>
+        <v>482.34</v>
       </c>
       <c r="P25">
-        <v>1338.7819999999999</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>642.45100000000002</v>
+        <v>-128.05000000000001</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
-        <v>2351.7359999999999</v>
+        <v>1474.5070000000001</v>
       </c>
       <c r="U25">
-        <v>1308.683</v>
+        <v>216.53899999999999</v>
       </c>
       <c r="V25">
-        <v>288.45600000000002</v>
+        <v>70.872</v>
       </c>
       <c r="W25">
         <v>0</v>
       </c>
       <c r="X25">
-        <v>-0.61499999999999999</v>
+        <v>-110.116</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>394.58</v>
+        <v>-27.19</v>
       </c>
       <c r="AA25">
-        <v>131.90100000000001</v>
+        <v>43.66</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>199.85</v>
+        <v>52.902999999999999</v>
       </c>
       <c r="D26">
-        <v>734.58399999999995</v>
+        <v>321.00200000000001</v>
       </c>
       <c r="E26">
-        <v>681.20600000000002</v>
+        <v>204.97399999999999</v>
       </c>
       <c r="F26">
-        <v>647.06399999999996</v>
+        <v>297.97699999999998</v>
       </c>
       <c r="G26">
-        <v>2561.277</v>
+        <v>811.73699999999997</v>
       </c>
       <c r="H26">
-        <v>6390.2269999999999</v>
+        <v>2024.473</v>
       </c>
       <c r="I26">
-        <v>72.724000000000004</v>
+        <v>45.216999999999999</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -2764,164 +2884,164 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>3098.3490000000002</v>
+        <v>535.54300000000001</v>
       </c>
       <c r="O26">
-        <v>3781.5</v>
+        <v>560.18399999999997</v>
       </c>
       <c r="P26">
-        <v>1348.1559999999999</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>-351.72699999999998</v>
+        <v>132.51499999999999</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="S26">
-        <v>9600</v>
+        <v>3742</v>
       </c>
       <c r="T26">
-        <v>2608.7269999999999</v>
+        <v>1464.289</v>
       </c>
       <c r="U26">
-        <v>836.09500000000003</v>
+        <v>349.05399999999997</v>
       </c>
       <c r="V26">
-        <v>259.04700000000003</v>
+        <v>97.337000000000003</v>
       </c>
       <c r="W26">
         <v>0</v>
       </c>
       <c r="X26">
-        <v>-5.7519999999999998</v>
+        <v>-73.138000000000005</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>-567.745</v>
+        <v>125.348</v>
       </c>
       <c r="AA26">
-        <v>199.85</v>
+        <v>52.902999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>27.620999999999999</v>
+        <v>37.633000000000003</v>
       </c>
       <c r="D27">
-        <v>662.67700000000002</v>
+        <v>308.08800000000002</v>
       </c>
       <c r="E27">
-        <v>485.76900000000001</v>
+        <v>168.047</v>
       </c>
       <c r="F27">
-        <v>573.30700000000002</v>
+        <v>284.90199999999999</v>
       </c>
       <c r="G27">
-        <v>2085.1570000000002</v>
+        <v>939.62800000000004</v>
       </c>
       <c r="H27">
-        <v>5360.5659999999998</v>
+        <v>2187.38</v>
       </c>
       <c r="I27">
-        <v>64.075000000000003</v>
+        <v>46.820999999999998</v>
       </c>
       <c r="J27">
-        <v>1357.58</v>
+        <v>0</v>
       </c>
       <c r="K27">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L27">
         <v>0</v>
       </c>
       <c r="M27">
-        <v>-4</v>
+        <v>-8</v>
       </c>
       <c r="N27">
-        <v>1630.9870000000001</v>
+        <v>585.19799999999998</v>
       </c>
       <c r="O27">
-        <v>3626.8240000000001</v>
+        <v>621.40700000000004</v>
       </c>
       <c r="P27">
-        <v>1457.58</v>
+        <v>0</v>
       </c>
       <c r="Q27">
-        <v>-48.978999999999999</v>
+        <v>100.517</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>1733.742</v>
+        <v>1565.973</v>
       </c>
       <c r="U27">
-        <v>907.97699999999998</v>
+        <v>449.57100000000003</v>
       </c>
       <c r="V27">
-        <v>249.28399999999999</v>
+        <v>122.51600000000001</v>
       </c>
       <c r="W27">
         <v>0</v>
       </c>
       <c r="X27">
-        <v>-466.48899999999998</v>
+        <v>54.502000000000002</v>
       </c>
       <c r="Y27">
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>249.476</v>
+        <v>-1.3149999999999999</v>
       </c>
       <c r="AA27">
-        <v>27.620999999999999</v>
+        <v>37.633000000000003</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>108.82899999999999</v>
+        <v>53.39</v>
       </c>
       <c r="D28">
-        <v>693.22699999999998</v>
+        <v>334.36399999999998</v>
       </c>
       <c r="E28">
-        <v>541.31500000000005</v>
+        <v>177.41800000000001</v>
       </c>
       <c r="F28">
-        <v>596.32500000000005</v>
+        <v>309.15600000000001</v>
       </c>
       <c r="G28">
-        <v>2086.4870000000001</v>
+        <v>1030.8430000000001</v>
       </c>
       <c r="H28">
-        <v>5430.9089999999997</v>
+        <v>2282.922</v>
       </c>
       <c r="I28">
-        <v>65.265000000000001</v>
+        <v>43.884</v>
       </c>
       <c r="J28">
-        <v>1367.0920000000001</v>
+        <v>0</v>
       </c>
       <c r="K28">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -2930,81 +3050,81 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>1546.489</v>
+        <v>615.10799999999995</v>
       </c>
       <c r="O28">
-        <v>3549.2080000000001</v>
+        <v>651.92600000000004</v>
       </c>
       <c r="P28">
-        <v>1397.0920000000001</v>
+        <v>0</v>
       </c>
       <c r="Q28">
-        <v>-63.206000000000003</v>
+        <v>45.875</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>1881.701</v>
+        <v>1630.9960000000001</v>
       </c>
       <c r="U28">
-        <v>844.77099999999996</v>
+        <v>495.44600000000003</v>
       </c>
       <c r="V28">
-        <v>150.47499999999999</v>
+        <v>102.321</v>
       </c>
       <c r="W28">
         <v>0</v>
       </c>
       <c r="X28">
-        <v>-95.090999999999994</v>
+        <v>0</v>
       </c>
       <c r="Y28">
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>-98.052000000000007</v>
+        <v>-36.950000000000003</v>
       </c>
       <c r="AA28">
-        <v>108.82899999999999</v>
+        <v>53.39</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>126.72</v>
+        <v>60.695</v>
       </c>
       <c r="D29">
-        <v>690.92499999999995</v>
+        <v>349.93099999999998</v>
       </c>
       <c r="E29">
-        <v>464.80099999999999</v>
+        <v>190.536</v>
       </c>
       <c r="F29">
-        <v>602.55200000000002</v>
+        <v>320.79399999999998</v>
       </c>
       <c r="G29">
-        <v>2151.6729999999998</v>
+        <v>1036.1300000000001</v>
       </c>
       <c r="H29">
-        <v>5499.3959999999997</v>
+        <v>2312.8760000000002</v>
       </c>
       <c r="I29">
-        <v>56.771999999999998</v>
+        <v>41.488999999999997</v>
       </c>
       <c r="J29">
-        <v>1376.673</v>
+        <v>0</v>
       </c>
       <c r="K29">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -3013,78 +3133,78 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>1498.6489999999999</v>
+        <v>621.27800000000002</v>
       </c>
       <c r="O29">
-        <v>3503.7849999999999</v>
+        <v>660.50099999999998</v>
       </c>
       <c r="P29">
-        <v>1416.673</v>
+        <v>0</v>
       </c>
       <c r="Q29">
-        <v>96.097999999999999</v>
+        <v>-131.989</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>1995.6110000000001</v>
+        <v>1652.375</v>
       </c>
       <c r="U29">
-        <v>940.86900000000003</v>
+        <v>363.45699999999999</v>
       </c>
       <c r="V29">
-        <v>254.75899999999999</v>
+        <v>84.974999999999994</v>
       </c>
       <c r="W29">
         <v>0</v>
       </c>
       <c r="X29">
-        <v>-74.984999999999999</v>
+        <v>-57.125999999999998</v>
       </c>
       <c r="Y29">
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>-61.238999999999997</v>
+        <v>-132.75</v>
       </c>
       <c r="AA29">
-        <v>126.72</v>
+        <v>60.695</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>-283.88900000000001</v>
+        <v>62.765000000000001</v>
       </c>
       <c r="D30">
-        <v>777.85699999999997</v>
+        <v>399.55900000000003</v>
       </c>
       <c r="E30">
-        <v>712.53499999999997</v>
+        <v>225.86099999999999</v>
       </c>
       <c r="F30">
-        <v>678.54399999999998</v>
+        <v>369.07900000000001</v>
       </c>
       <c r="G30">
-        <v>2621.4229999999998</v>
+        <v>934.34500000000003</v>
       </c>
       <c r="H30">
-        <v>5820.1760000000004</v>
+        <v>2534.6930000000002</v>
       </c>
       <c r="I30">
-        <v>66.893000000000001</v>
+        <v>55.585999999999999</v>
       </c>
       <c r="J30">
-        <v>2127.4740000000002</v>
+        <v>0</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -3096,78 +3216,78 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>1687.079</v>
+        <v>654.274</v>
       </c>
       <c r="O30">
-        <v>4827.7150000000001</v>
+        <v>696.36800000000005</v>
       </c>
       <c r="P30">
-        <v>2127.4740000000002</v>
+        <v>0</v>
       </c>
       <c r="Q30">
-        <v>174.261</v>
+        <v>-139.708</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="S30">
-        <v>7500</v>
+        <v>4620</v>
       </c>
       <c r="T30">
-        <v>992.46100000000001</v>
+        <v>1838.325</v>
       </c>
       <c r="U30">
-        <v>1115.1300000000001</v>
+        <v>223.749</v>
       </c>
       <c r="V30">
-        <v>253.75800000000001</v>
+        <v>112.46299999999999</v>
       </c>
       <c r="W30">
         <v>0</v>
       </c>
       <c r="X30">
-        <v>-57.802</v>
+        <v>-129.19800000000001</v>
       </c>
       <c r="Y30">
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>-3.8090000000000002</v>
+        <v>-9.3620000000000001</v>
       </c>
       <c r="AA30">
-        <v>-283.88900000000001</v>
+        <v>62.765000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>144.25899999999999</v>
+        <v>34.378</v>
       </c>
       <c r="D31">
-        <v>697.19200000000001</v>
+        <v>377.03399999999999</v>
       </c>
       <c r="E31">
-        <v>427.89</v>
+        <v>186.6</v>
       </c>
       <c r="F31">
-        <v>599.93499999999995</v>
+        <v>347.19600000000003</v>
       </c>
       <c r="G31">
-        <v>2075.41</v>
+        <v>774.97199999999998</v>
       </c>
       <c r="H31">
-        <v>5137.4769999999999</v>
+        <v>2547.5430000000001</v>
       </c>
       <c r="I31">
-        <v>68.701999999999998</v>
+        <v>46.933999999999997</v>
       </c>
       <c r="J31">
-        <v>2137.4180000000001</v>
+        <v>0</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -3176,81 +3296,81 @@
         <v>0</v>
       </c>
       <c r="M31">
-        <v>-5.6740000000000004</v>
+        <v>-0.40699999999999997</v>
       </c>
       <c r="N31">
-        <v>1521.6590000000001</v>
+        <v>659.71799999999996</v>
       </c>
       <c r="O31">
-        <v>4614.0990000000002</v>
+        <v>698.1</v>
       </c>
       <c r="P31">
-        <v>2137.4180000000001</v>
+        <v>0</v>
       </c>
       <c r="Q31">
-        <v>-160.43299999999999</v>
+        <v>-31.616</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>523.37800000000004</v>
+        <v>1849.443</v>
       </c>
       <c r="U31">
-        <v>954.697</v>
+        <v>192.13300000000001</v>
       </c>
       <c r="V31">
-        <v>357.85500000000002</v>
+        <v>106.727</v>
       </c>
       <c r="W31">
         <v>0</v>
       </c>
       <c r="X31">
-        <v>-769.20600000000002</v>
+        <v>-61.725000000000001</v>
       </c>
       <c r="Y31">
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>328.11900000000003</v>
+        <v>-18.187999999999999</v>
       </c>
       <c r="AA31">
-        <v>144.25899999999999</v>
+        <v>34.378</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>106.833</v>
+        <v>34.649000000000001</v>
       </c>
       <c r="D32">
-        <v>742.36500000000001</v>
+        <v>391.73</v>
       </c>
       <c r="E32">
-        <v>528.38599999999997</v>
+        <v>225.27699999999999</v>
       </c>
       <c r="F32">
-        <v>645.13499999999999</v>
+        <v>358.84899999999999</v>
       </c>
       <c r="G32">
-        <v>2266.3910000000001</v>
+        <v>825.87800000000004</v>
       </c>
       <c r="H32">
-        <v>5366.0619999999999</v>
+        <v>2569.846</v>
       </c>
       <c r="I32">
-        <v>86.533000000000001</v>
+        <v>44.225000000000001</v>
       </c>
       <c r="J32">
-        <v>741.27700000000004</v>
+        <v>0</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -3262,78 +3382,78 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>3014.2579999999998</v>
+        <v>669.96199999999999</v>
       </c>
       <c r="O32">
-        <v>4729.8860000000004</v>
+        <v>710.67499999999995</v>
       </c>
       <c r="P32">
-        <v>2147.4340000000002</v>
+        <v>0</v>
       </c>
       <c r="Q32">
-        <v>67.010999999999996</v>
+        <v>-44.752000000000002</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>636.17600000000004</v>
+        <v>1859.171</v>
       </c>
       <c r="U32">
-        <v>1021.708</v>
+        <v>147.381</v>
       </c>
       <c r="V32">
-        <v>170.18299999999999</v>
+        <v>74.584000000000003</v>
       </c>
       <c r="W32">
         <v>0</v>
       </c>
       <c r="X32">
-        <v>-51.268999999999998</v>
+        <v>-52.014000000000003</v>
       </c>
       <c r="Y32">
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>-28.562999999999999</v>
+        <v>-32.122</v>
       </c>
       <c r="AA32">
-        <v>106.833</v>
+        <v>34.649000000000001</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>158.857</v>
+        <v>49.149000000000001</v>
       </c>
       <c r="D33">
-        <v>732.476</v>
+        <v>398.89299999999997</v>
       </c>
       <c r="E33">
-        <v>413.50900000000001</v>
+        <v>220.77199999999999</v>
       </c>
       <c r="F33">
-        <v>640.18799999999999</v>
+        <v>368.553</v>
       </c>
       <c r="G33">
-        <v>2497.9609999999998</v>
+        <v>893.07500000000005</v>
       </c>
       <c r="H33">
-        <v>5436.527</v>
+        <v>2562.9050000000002</v>
       </c>
       <c r="I33">
-        <v>71.11</v>
+        <v>41.996000000000002</v>
       </c>
       <c r="J33">
-        <v>741.55100000000004</v>
+        <v>0</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -3345,78 +3465,78 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>3023.1610000000001</v>
+        <v>687.91600000000005</v>
       </c>
       <c r="O33">
-        <v>4683.3069999999998</v>
+        <v>728.41800000000001</v>
       </c>
       <c r="P33">
-        <v>2157.5210000000002</v>
+        <v>0</v>
       </c>
       <c r="Q33">
-        <v>183.47399999999999</v>
+        <v>70.697000000000003</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>753.22</v>
+        <v>1834.4870000000001</v>
       </c>
       <c r="U33">
-        <v>1205.182</v>
+        <v>218.078</v>
       </c>
       <c r="V33">
-        <v>300.89800000000002</v>
+        <v>114.68600000000001</v>
       </c>
       <c r="W33">
         <v>0</v>
       </c>
       <c r="X33">
-        <v>-119.777</v>
+        <v>-68.932000000000002</v>
       </c>
       <c r="Y33">
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>27.187000000000001</v>
+        <v>47.837000000000003</v>
       </c>
       <c r="AA33">
-        <v>158.857</v>
+        <v>49.149000000000001</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>165.71799999999999</v>
+        <v>60.1</v>
       </c>
       <c r="D34">
-        <v>801.87</v>
+        <v>415.697</v>
       </c>
       <c r="E34">
-        <v>688.42</v>
+        <v>231.29599999999999</v>
       </c>
       <c r="F34">
-        <v>701.90099999999995</v>
+        <v>381.65199999999999</v>
       </c>
       <c r="G34">
-        <v>2086.9009999999998</v>
+        <v>940.14</v>
       </c>
       <c r="H34">
-        <v>5136.049</v>
+        <v>2694.306</v>
       </c>
       <c r="I34">
-        <v>75.551000000000002</v>
+        <v>46.671999999999997</v>
       </c>
       <c r="J34">
-        <v>741.82500000000005</v>
+        <v>0</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -3428,78 +3548,78 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>2911.14</v>
+        <v>730.91700000000003</v>
       </c>
       <c r="O34">
-        <v>4584.53</v>
+        <v>776.44100000000003</v>
       </c>
       <c r="P34">
-        <v>1897.27</v>
+        <v>0</v>
       </c>
       <c r="Q34">
-        <v>-586.41600000000005</v>
+        <v>108.04300000000001</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="S34">
-        <v>8200</v>
+        <v>5040</v>
       </c>
       <c r="T34">
-        <v>551.51900000000001</v>
+        <v>1917.865</v>
       </c>
       <c r="U34">
-        <v>618.76599999999996</v>
+        <v>326.12099999999998</v>
       </c>
       <c r="V34">
-        <v>206.40899999999999</v>
+        <v>166.11</v>
       </c>
       <c r="W34">
-        <v>-46.798999999999999</v>
+        <v>0</v>
       </c>
       <c r="X34">
-        <v>-717.78899999999999</v>
+        <v>-24.263000000000002</v>
       </c>
       <c r="Y34">
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>130.13200000000001</v>
+        <v>93.337999999999994</v>
       </c>
       <c r="AA34">
-        <v>165.71799999999999</v>
+        <v>60.1</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>110.348</v>
+        <v>6.9269999999999996</v>
       </c>
       <c r="D35">
-        <v>719.14300000000003</v>
+        <v>369.05799999999999</v>
       </c>
       <c r="E35">
-        <v>482.64699999999999</v>
+        <v>198.173</v>
       </c>
       <c r="F35">
-        <v>621.971</v>
+        <v>335.94099999999997</v>
       </c>
       <c r="G35">
-        <v>2453.0100000000002</v>
+        <v>891.05499999999995</v>
       </c>
       <c r="H35">
-        <v>5167.4560000000001</v>
+        <v>2712.0239999999999</v>
       </c>
       <c r="I35">
-        <v>81.475999999999999</v>
+        <v>40.64</v>
       </c>
       <c r="J35">
-        <v>742.1</v>
+        <v>0</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -3511,78 +3631,78 @@
         <v>0</v>
       </c>
       <c r="N35">
-        <v>2842.768</v>
+        <v>718.50699999999995</v>
       </c>
       <c r="O35">
-        <v>4612.5780000000004</v>
+        <v>762.49699999999996</v>
       </c>
       <c r="P35">
-        <v>2154.2550000000001</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>993.91300000000001</v>
+        <v>-56.298000000000002</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>554.87800000000004</v>
+        <v>1949.527</v>
       </c>
       <c r="U35">
-        <v>1612.6790000000001</v>
+        <v>269.82299999999998</v>
       </c>
       <c r="V35">
-        <v>267.56599999999997</v>
+        <v>81.745999999999995</v>
       </c>
       <c r="W35">
-        <v>-46.024000000000001</v>
+        <v>0</v>
       </c>
       <c r="X35">
-        <v>-157.49100000000001</v>
+        <v>-0.39300000000000002</v>
       </c>
       <c r="Y35">
-        <v>203.58</v>
+        <v>0</v>
       </c>
       <c r="Z35">
-        <v>900.18499999999995</v>
+        <v>-112.93600000000001</v>
       </c>
       <c r="AA35">
-        <v>110.348</v>
+        <v>6.9269999999999996</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>93.495000000000005</v>
+        <v>42.518999999999998</v>
       </c>
       <c r="D36">
-        <v>748.697</v>
+        <v>392.82799999999997</v>
       </c>
       <c r="E36">
-        <v>530.10199999999998</v>
+        <v>224.184</v>
       </c>
       <c r="F36">
-        <v>648.00199999999995</v>
+        <v>360.19</v>
       </c>
       <c r="G36">
-        <v>1271.7139999999999</v>
+        <v>952.38900000000001</v>
       </c>
       <c r="H36">
-        <v>3935.1959999999999</v>
+        <v>2816.268</v>
       </c>
       <c r="I36">
-        <v>96.768000000000001</v>
+        <v>42.585999999999999</v>
       </c>
       <c r="J36">
-        <v>742.48199999999997</v>
+        <v>0</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -3594,78 +3714,78 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>1681.5260000000001</v>
+        <v>719.53</v>
       </c>
       <c r="O36">
-        <v>3427.174</v>
+        <v>768.43</v>
       </c>
       <c r="P36">
-        <v>989.03899999999999</v>
+        <v>0</v>
       </c>
       <c r="Q36">
-        <v>-1107.9590000000001</v>
+        <v>24.387</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>508.02199999999999</v>
+        <v>2047.838</v>
       </c>
       <c r="U36">
-        <v>504.72</v>
+        <v>294.20999999999998</v>
       </c>
       <c r="V36">
-        <v>162.34700000000001</v>
+        <v>86.442999999999998</v>
       </c>
       <c r="W36">
-        <v>-45.826999999999998</v>
+        <v>0</v>
       </c>
       <c r="X36">
-        <v>-1419.4090000000001</v>
+        <v>15.497999999999999</v>
       </c>
       <c r="Y36">
-        <v>200.084</v>
+        <v>0</v>
       </c>
       <c r="Z36">
-        <v>171.57</v>
+        <v>-55.698</v>
       </c>
       <c r="AA36">
-        <v>93.495000000000005</v>
+        <v>42.518999999999998</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>270.85700000000003</v>
+        <v>53.423000000000002</v>
       </c>
       <c r="D37">
-        <v>732.90099999999995</v>
+        <v>401.04199999999997</v>
       </c>
       <c r="E37">
-        <v>426.84199999999998</v>
+        <v>237.89699999999999</v>
       </c>
       <c r="F37">
-        <v>628.60500000000002</v>
+        <v>367.166</v>
       </c>
       <c r="G37">
-        <v>1194</v>
+        <v>961.26499999999999</v>
       </c>
       <c r="H37">
-        <v>4031.0929999999998</v>
+        <v>2913.9740000000002</v>
       </c>
       <c r="I37">
-        <v>72.659000000000006</v>
+        <v>47.22</v>
       </c>
       <c r="J37">
-        <v>742.70399999999995</v>
+        <v>0</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -3677,78 +3797,78 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>1613.6849999999999</v>
+        <v>725.53399999999999</v>
       </c>
       <c r="O37">
-        <v>3318.1819999999998</v>
+        <v>787.11</v>
       </c>
       <c r="P37">
-        <v>1011.0650000000001</v>
+        <v>0</v>
       </c>
       <c r="Q37">
-        <v>-10.885999999999999</v>
+        <v>6.1580000000000004</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>712.91099999999994</v>
+        <v>2126.864</v>
       </c>
       <c r="U37">
-        <v>493.834</v>
+        <v>300.36799999999999</v>
       </c>
       <c r="V37">
-        <v>147.10599999999999</v>
+        <v>133.87200000000001</v>
       </c>
       <c r="W37">
-        <v>-45.372999999999998</v>
+        <v>0</v>
       </c>
       <c r="X37">
-        <v>-153.51900000000001</v>
+        <v>-19.111999999999998</v>
       </c>
       <c r="Y37">
-        <v>221.03200000000001</v>
+        <v>0</v>
       </c>
       <c r="Z37">
-        <v>12.221</v>
+        <v>-88.478999999999999</v>
       </c>
       <c r="AA37">
-        <v>270.85700000000003</v>
+        <v>53.423000000000002</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>207.113</v>
+        <v>88.147999999999996</v>
       </c>
       <c r="D38">
-        <v>809.82299999999998</v>
+        <v>451.16</v>
       </c>
       <c r="E38">
-        <v>732.55899999999997</v>
+        <v>304.91199999999998</v>
       </c>
       <c r="F38">
-        <v>699.279</v>
+        <v>411.39800000000002</v>
       </c>
       <c r="G38">
-        <v>1512.732</v>
+        <v>1039.2950000000001</v>
       </c>
       <c r="H38">
-        <v>4388.9260000000004</v>
+        <v>3091.1469999999999</v>
       </c>
       <c r="I38">
-        <v>84.537999999999997</v>
+        <v>57.351999999999997</v>
       </c>
       <c r="J38">
-        <v>742.92600000000004</v>
+        <v>0</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -3760,78 +3880,78 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>1828.587</v>
+        <v>834.36400000000003</v>
       </c>
       <c r="O38">
-        <v>3551.27</v>
+        <v>902.64</v>
       </c>
       <c r="P38">
-        <v>999.33299999999997</v>
+        <v>0</v>
       </c>
       <c r="Q38">
-        <v>51.927</v>
+        <v>-38.924999999999997</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="S38">
-        <v>8400</v>
+        <v>4816</v>
       </c>
       <c r="T38">
-        <v>837.65599999999995</v>
+        <v>2188.5070000000001</v>
       </c>
       <c r="U38">
-        <v>545.76099999999997</v>
+        <v>261.44299999999998</v>
       </c>
       <c r="V38">
-        <v>206.05099999999999</v>
+        <v>181.91300000000001</v>
       </c>
       <c r="W38">
-        <v>-45.722999999999999</v>
+        <v>0</v>
       </c>
       <c r="X38">
-        <v>-160.09100000000001</v>
+        <v>-41.53</v>
       </c>
       <c r="Y38">
-        <v>209.38200000000001</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>17.076000000000001</v>
+        <v>-162.87799999999999</v>
       </c>
       <c r="AA38">
-        <v>207.113</v>
+        <v>88.147999999999996</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>181.22200000000001</v>
+        <v>47.348999999999997</v>
       </c>
       <c r="D39">
-        <v>860.94500000000005</v>
+        <v>414.27199999999999</v>
       </c>
       <c r="E39">
-        <v>700.02599999999995</v>
+        <v>242.607</v>
       </c>
       <c r="F39">
-        <v>753.649</v>
+        <v>377.93099999999998</v>
       </c>
       <c r="G39">
-        <v>1461.0530000000001</v>
+        <v>1086.7249999999999</v>
       </c>
       <c r="H39">
-        <v>4331.2269999999999</v>
+        <v>3238.46</v>
       </c>
       <c r="I39">
-        <v>105.218</v>
+        <v>54.165999999999997</v>
       </c>
       <c r="J39">
-        <v>1730.961</v>
+        <v>0</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -3840,81 +3960,81 @@
         <v>0</v>
       </c>
       <c r="M39">
-        <v>-750</v>
+        <v>0</v>
       </c>
       <c r="N39">
-        <v>1874.049</v>
+        <v>833.95100000000002</v>
       </c>
       <c r="O39">
-        <v>4550.1559999999999</v>
+        <v>903.82899999999995</v>
       </c>
       <c r="P39">
-        <v>1981.89</v>
+        <v>0</v>
       </c>
       <c r="Q39">
-        <v>-20.88</v>
+        <v>20.404</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>-218.929</v>
+        <v>2334.6309999999999</v>
       </c>
       <c r="U39">
-        <v>524.88099999999997</v>
+        <v>281.84699999999998</v>
       </c>
       <c r="V39">
-        <v>284.24700000000001</v>
+        <v>143.565</v>
       </c>
       <c r="W39">
-        <v>-42.838999999999999</v>
+        <v>0</v>
       </c>
       <c r="X39">
-        <v>-310.036</v>
+        <v>65.841999999999999</v>
       </c>
       <c r="Y39">
-        <v>201.33600000000001</v>
+        <v>0</v>
       </c>
       <c r="Z39">
-        <v>21.335000000000001</v>
+        <v>-160.54300000000001</v>
       </c>
       <c r="AA39">
-        <v>181.22200000000001</v>
+        <v>47.348999999999997</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>112.90600000000001</v>
+        <v>47.557000000000002</v>
       </c>
       <c r="D40">
-        <v>798.92899999999997</v>
+        <v>458.43299999999999</v>
       </c>
       <c r="E40">
-        <v>614.15</v>
+        <v>319.37799999999999</v>
       </c>
       <c r="F40">
-        <v>684.99199999999996</v>
+        <v>417.29500000000002</v>
       </c>
       <c r="G40">
-        <v>1685.9770000000001</v>
+        <v>1311.653</v>
       </c>
       <c r="H40">
-        <v>4548.1139999999996</v>
+        <v>3318.59</v>
       </c>
       <c r="I40">
-        <v>122.154</v>
+        <v>52.582999999999998</v>
       </c>
       <c r="J40">
-        <v>1731.5139999999999</v>
+        <v>0</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -3926,78 +4046,78 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>1992.5329999999999</v>
+        <v>884.39300000000003</v>
       </c>
       <c r="O40">
-        <v>4641.71</v>
+        <v>982.57399999999996</v>
       </c>
       <c r="P40">
-        <v>1930.2260000000001</v>
+        <v>0</v>
       </c>
       <c r="Q40">
-        <v>30.190999999999999</v>
+        <v>62.856999999999999</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>-93.596000000000004</v>
+        <v>2336.0160000000001</v>
       </c>
       <c r="U40">
-        <v>555.072</v>
+        <v>344.70400000000001</v>
       </c>
       <c r="V40">
-        <v>419.16899999999998</v>
+        <v>103.21899999999999</v>
       </c>
       <c r="W40">
-        <v>-43.222999999999999</v>
+        <v>0</v>
       </c>
       <c r="X40">
-        <v>-90.132000000000005</v>
+        <v>-67.617999999999995</v>
       </c>
       <c r="Y40">
-        <v>198.71199999999999</v>
+        <v>0</v>
       </c>
       <c r="Z40">
-        <v>-287.40499999999997</v>
+        <v>49.564</v>
       </c>
       <c r="AA40">
-        <v>112.90600000000001</v>
+        <v>47.557000000000002</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>98.227000000000004</v>
+        <v>87.778999999999996</v>
       </c>
       <c r="D41">
-        <v>767.17</v>
+        <v>472.233</v>
       </c>
       <c r="E41">
-        <v>586.88199999999995</v>
+        <v>273.286</v>
       </c>
       <c r="F41">
-        <v>648.17700000000002</v>
+        <v>426.97399999999999</v>
       </c>
       <c r="G41">
-        <v>1738.9639999999999</v>
+        <v>1386.6479999999999</v>
       </c>
       <c r="H41">
-        <v>4608.5940000000001</v>
+        <v>3496.9870000000001</v>
       </c>
       <c r="I41">
-        <v>101.339</v>
+        <v>58.472000000000001</v>
       </c>
       <c r="J41">
-        <v>1732.069</v>
+        <v>0</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -4009,128 +4129,3448 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>1920.827</v>
+        <v>889.26199999999994</v>
       </c>
       <c r="O41">
-        <v>4539.7939999999999</v>
+        <v>995.39300000000003</v>
       </c>
       <c r="P41">
-        <v>1927.2619999999999</v>
+        <v>0</v>
       </c>
       <c r="Q41">
-        <v>13.752000000000001</v>
+        <v>54.283999999999999</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41">
-        <v>68.8</v>
+        <v>2501.5940000000001</v>
       </c>
       <c r="U41">
-        <v>568.82399999999996</v>
+        <v>398.988</v>
       </c>
       <c r="V41">
-        <v>112.357</v>
+        <v>190.18100000000001</v>
       </c>
       <c r="W41">
-        <v>-43.045999999999999</v>
+        <v>0</v>
       </c>
       <c r="X41">
-        <v>-46.738</v>
+        <v>26.561</v>
       </c>
       <c r="Y41">
-        <v>195.19300000000001</v>
+        <v>0</v>
       </c>
       <c r="Z41">
-        <v>-44.284999999999997</v>
+        <v>-128.24799999999999</v>
       </c>
       <c r="AA41">
-        <v>98.227000000000004</v>
+        <v>87.778999999999996</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>40543</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>94.38</v>
+      </c>
+      <c r="D42">
+        <v>529.72400000000005</v>
+      </c>
+      <c r="E42">
+        <v>378.39499999999998</v>
+      </c>
+      <c r="F42">
+        <v>479.54599999999999</v>
+      </c>
+      <c r="G42">
+        <v>1470.479</v>
+      </c>
+      <c r="H42">
+        <v>3703.6</v>
+      </c>
+      <c r="I42">
+        <v>65.841999999999999</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>1020.0119999999999</v>
+      </c>
+      <c r="O42">
+        <v>1143.0119999999999</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>-2.8260000000000001</v>
+      </c>
+      <c r="R42">
+        <v>40543</v>
+      </c>
+      <c r="S42">
+        <v>5637</v>
+      </c>
+      <c r="T42">
+        <v>2560.5880000000002</v>
+      </c>
+      <c r="U42">
+        <v>396.16199999999998</v>
+      </c>
+      <c r="V42">
+        <v>179.327</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>-51.100999999999999</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>-105.214</v>
+      </c>
+      <c r="AA42">
+        <v>94.38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40633</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>73.503</v>
+      </c>
+      <c r="D43">
+        <v>490.88799999999998</v>
+      </c>
+      <c r="E43">
+        <v>297.19</v>
+      </c>
+      <c r="F43">
+        <v>443.61</v>
+      </c>
+      <c r="G43">
+        <v>1431.8389999999999</v>
+      </c>
+      <c r="H43">
+        <v>3752.5650000000001</v>
+      </c>
+      <c r="I43">
+        <v>47.61</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>-10.926</v>
+      </c>
+      <c r="N43">
+        <v>974.06200000000001</v>
+      </c>
+      <c r="O43">
+        <v>1133.5909999999999</v>
+      </c>
+      <c r="P43">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>119.178</v>
+      </c>
+      <c r="R43">
+        <v>40633</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>2618.9740000000002</v>
+      </c>
+      <c r="U43">
+        <v>515.34</v>
+      </c>
+      <c r="V43">
+        <v>159.22800000000001</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>-61.838000000000001</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>164.67099999999999</v>
+      </c>
+      <c r="AA43">
+        <v>73.503</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40724</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>81.944000000000003</v>
+      </c>
+      <c r="D44">
+        <v>530.79</v>
+      </c>
+      <c r="E44">
+        <v>338.73399999999998</v>
+      </c>
+      <c r="F44">
+        <v>471.49900000000002</v>
+      </c>
+      <c r="G44">
+        <v>1452.556</v>
+      </c>
+      <c r="H44">
+        <v>3869.6889999999999</v>
+      </c>
+      <c r="I44">
+        <v>61.055999999999997</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>1038.3050000000001</v>
+      </c>
+      <c r="O44">
+        <v>1206.2</v>
+      </c>
+      <c r="P44">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>-84.524000000000001</v>
+      </c>
+      <c r="R44">
+        <v>40724</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>2663.489</v>
+      </c>
+      <c r="U44">
+        <v>430.81599999999997</v>
+      </c>
+      <c r="V44">
+        <v>162.297</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>-58.866999999999997</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>-149.50899999999999</v>
+      </c>
+      <c r="AA44">
+        <v>81.944000000000003</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40816</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>92.176000000000002</v>
+      </c>
+      <c r="D45">
+        <v>565.34799999999996</v>
+      </c>
+      <c r="E45">
+        <v>339.49400000000003</v>
+      </c>
+      <c r="F45">
+        <v>500.33800000000002</v>
+      </c>
+      <c r="G45">
+        <v>1311.6410000000001</v>
+      </c>
+      <c r="H45">
+        <v>3882.864</v>
+      </c>
+      <c r="I45">
+        <v>57.49</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>1050.7380000000001</v>
+      </c>
+      <c r="O45">
+        <v>1222.9390000000001</v>
+      </c>
+      <c r="P45">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>-118.68600000000001</v>
+      </c>
+      <c r="R45">
+        <v>40816</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>2659.9250000000002</v>
+      </c>
+      <c r="U45">
+        <v>312.13</v>
+      </c>
+      <c r="V45">
+        <v>188.03399999999999</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>-113.447</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>33.863999999999997</v>
+      </c>
+      <c r="AA45">
+        <v>92.176000000000002</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40908</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>108.699</v>
+      </c>
+      <c r="D46">
+        <v>619.36599999999999</v>
+      </c>
+      <c r="E46">
+        <v>484.43099999999998</v>
+      </c>
+      <c r="F46">
+        <v>552.08699999999999</v>
+      </c>
+      <c r="G46">
+        <v>1373.03</v>
+      </c>
+      <c r="H46">
+        <v>4099.5410000000002</v>
+      </c>
+      <c r="I46">
+        <v>58.033999999999999</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>1179.1300000000001</v>
+      </c>
+      <c r="O46">
+        <v>1369.0509999999999</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>21.166</v>
+      </c>
+      <c r="R46">
+        <v>40908</v>
+      </c>
+      <c r="S46">
+        <v>6936</v>
+      </c>
+      <c r="T46">
+        <v>2730.49</v>
+      </c>
+      <c r="U46">
+        <v>333.29599999999999</v>
+      </c>
+      <c r="V46">
+        <v>169.56299999999999</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>-58.462000000000003</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>82.539000000000001</v>
+      </c>
+      <c r="AA46">
+        <v>108.699</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>40999</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>68.266999999999996</v>
+      </c>
+      <c r="D47">
+        <v>589.495</v>
+      </c>
+      <c r="E47">
+        <v>389.80700000000002</v>
+      </c>
+      <c r="F47">
+        <v>519.68700000000001</v>
+      </c>
+      <c r="G47">
+        <v>1423.729</v>
+      </c>
+      <c r="H47">
+        <v>4151.1180000000004</v>
+      </c>
+      <c r="I47">
+        <v>53.939</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>-2.456</v>
+      </c>
+      <c r="N47">
+        <v>1171.8610000000001</v>
+      </c>
+      <c r="O47">
+        <v>1373.585</v>
+      </c>
+      <c r="P47">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>57.585000000000001</v>
+      </c>
+      <c r="R47">
+        <v>40999</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>2777.5329999999999</v>
+      </c>
+      <c r="U47">
+        <v>390.88099999999997</v>
+      </c>
+      <c r="V47">
+        <v>243.07</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>-71.697000000000003</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>-67.867000000000004</v>
+      </c>
+      <c r="AA47">
+        <v>68.266999999999996</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41090</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>92.006</v>
+      </c>
+      <c r="D48">
+        <v>615.21</v>
+      </c>
+      <c r="E48">
+        <v>404.21199999999999</v>
+      </c>
+      <c r="F48">
+        <v>537.952</v>
+      </c>
+      <c r="G48">
+        <v>1875.6759999999999</v>
+      </c>
+      <c r="H48">
+        <v>4329.0159999999996</v>
+      </c>
+      <c r="I48">
+        <v>61.709000000000003</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>1134.153</v>
+      </c>
+      <c r="O48">
+        <v>1399.0340000000001</v>
+      </c>
+      <c r="P48">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>570.95899999999995</v>
+      </c>
+      <c r="R48">
+        <v>41090</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>2929.982</v>
+      </c>
+      <c r="U48">
+        <v>961.84</v>
+      </c>
+      <c r="V48">
+        <v>167.744</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>35.42</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>469.637</v>
+      </c>
+      <c r="AA48">
+        <v>92.006</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41182</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>78.245000000000005</v>
+      </c>
+      <c r="D49">
+        <v>641.42200000000003</v>
+      </c>
+      <c r="E49">
+        <v>456.54500000000002</v>
+      </c>
+      <c r="F49">
+        <v>558.28399999999999</v>
+      </c>
+      <c r="G49">
+        <v>1319.5139999999999</v>
+      </c>
+      <c r="H49">
+        <v>4489.1530000000002</v>
+      </c>
+      <c r="I49">
+        <v>68.213999999999999</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>1165.874</v>
+      </c>
+      <c r="O49">
+        <v>1453.115</v>
+      </c>
+      <c r="P49">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>-637.71299999999997</v>
+      </c>
+      <c r="R49">
+        <v>41182</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>3036.038</v>
+      </c>
+      <c r="U49">
+        <v>324.12700000000001</v>
+      </c>
+      <c r="V49">
+        <v>180.99199999999999</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>-51.722000000000001</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>-327.47300000000001</v>
+      </c>
+      <c r="AA49">
+        <v>78.245000000000005</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41274</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>114.029</v>
+      </c>
+      <c r="D50">
+        <v>739.99599999999998</v>
+      </c>
+      <c r="E50">
+        <v>630.95600000000002</v>
+      </c>
+      <c r="F50">
+        <v>646.08799999999997</v>
+      </c>
+      <c r="G50">
+        <v>1713.7349999999999</v>
+      </c>
+      <c r="H50">
+        <v>4796.402</v>
+      </c>
+      <c r="I50">
+        <v>71.116</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>1342.873</v>
+      </c>
+      <c r="O50">
+        <v>1674.625</v>
+      </c>
+      <c r="P50">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>319.48200000000003</v>
+      </c>
+      <c r="R50">
+        <v>41274</v>
+      </c>
+      <c r="S50">
+        <v>8212</v>
+      </c>
+      <c r="T50">
+        <v>3121.777</v>
+      </c>
+      <c r="U50">
+        <v>643.60900000000004</v>
+      </c>
+      <c r="V50">
+        <v>226.721</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <v>-61.783000000000001</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>202.25200000000001</v>
+      </c>
+      <c r="AA50">
+        <v>114.029</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41364</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>59.688000000000002</v>
+      </c>
+      <c r="D51">
+        <v>672.899</v>
+      </c>
+      <c r="E51">
+        <v>450.93900000000002</v>
+      </c>
+      <c r="F51">
+        <v>582.69399999999996</v>
+      </c>
+      <c r="G51">
+        <v>1301.4749999999999</v>
+      </c>
+      <c r="H51">
+        <v>4848.3389999999999</v>
+      </c>
+      <c r="I51">
+        <v>61.613</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>1304.45</v>
+      </c>
+      <c r="O51">
+        <v>1654.192</v>
+      </c>
+      <c r="P51">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>-392.14400000000001</v>
+      </c>
+      <c r="R51">
+        <v>41364</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>3194.1469999999999</v>
+      </c>
+      <c r="U51">
+        <v>251.465</v>
+      </c>
+      <c r="V51">
+        <v>266.798</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <v>-28.890999999999998</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>-275.01100000000002</v>
+      </c>
+      <c r="AA51">
+        <v>59.688000000000002</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41455</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>64.460999999999999</v>
+      </c>
+      <c r="D52">
+        <v>730.38400000000001</v>
+      </c>
+      <c r="E52">
+        <v>493.67099999999999</v>
+      </c>
+      <c r="F52">
+        <v>627.48599999999999</v>
+      </c>
+      <c r="G52">
+        <v>1371.3579999999999</v>
+      </c>
+      <c r="H52">
+        <v>4996.0110000000004</v>
+      </c>
+      <c r="I52">
+        <v>72.613</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>1350.6220000000001</v>
+      </c>
+      <c r="O52">
+        <v>1719.8219999999999</v>
+      </c>
+      <c r="P52">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>11.688000000000001</v>
+      </c>
+      <c r="R52">
+        <v>41455</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>3276.1889999999999</v>
+      </c>
+      <c r="U52">
+        <v>263.15300000000002</v>
+      </c>
+      <c r="V52">
+        <v>208.90199999999999</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <v>-49.134</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>-105.96899999999999</v>
+      </c>
+      <c r="AA52">
+        <v>64.460999999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41547</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>76.73</v>
+      </c>
+      <c r="D53">
+        <v>712.73099999999999</v>
+      </c>
+      <c r="E53">
+        <v>450.39499999999998</v>
+      </c>
+      <c r="F53">
+        <v>613.12800000000004</v>
+      </c>
+      <c r="G53">
+        <v>1328.806</v>
+      </c>
+      <c r="H53">
+        <v>5123.9889999999996</v>
+      </c>
+      <c r="I53">
+        <v>68.646000000000001</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>1340.595</v>
+      </c>
+      <c r="O53">
+        <v>1723.1890000000001</v>
+      </c>
+      <c r="P53">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <v>-16.68</v>
+      </c>
+      <c r="R53">
+        <v>41547</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>3400.8</v>
+      </c>
+      <c r="U53">
+        <v>246.47300000000001</v>
+      </c>
+      <c r="V53">
+        <v>222.94900000000001</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
+      <c r="X53">
+        <v>-20.25</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>-152.624</v>
+      </c>
+      <c r="AA53">
+        <v>76.73</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41639</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>138.64400000000001</v>
+      </c>
+      <c r="D54">
+        <v>802.42</v>
+      </c>
+      <c r="E54">
+        <v>654.82100000000003</v>
+      </c>
+      <c r="F54">
+        <v>690.20399999999995</v>
+      </c>
+      <c r="G54">
+        <v>1563.095</v>
+      </c>
+      <c r="H54">
+        <v>5212.2489999999998</v>
+      </c>
+      <c r="I54">
+        <v>78.451999999999998</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>1464.0609999999999</v>
+      </c>
+      <c r="O54">
+        <v>1892.442</v>
+      </c>
+      <c r="P54">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>34.267000000000003</v>
+      </c>
+      <c r="R54">
+        <v>41639</v>
+      </c>
+      <c r="S54">
+        <v>9166</v>
+      </c>
+      <c r="T54">
+        <v>3319.8069999999998</v>
+      </c>
+      <c r="U54">
+        <v>280.74</v>
+      </c>
+      <c r="V54">
+        <v>229.69399999999999</v>
+      </c>
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <v>-254.006</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>105.377</v>
+      </c>
+      <c r="AA54">
+        <v>138.64400000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41729</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>55.939</v>
+      </c>
+      <c r="D55">
+        <v>750.81899999999996</v>
+      </c>
+      <c r="E55">
+        <v>510.86200000000002</v>
+      </c>
+      <c r="F55">
+        <v>640.79899999999998</v>
+      </c>
+      <c r="G55">
+        <v>1538.9010000000001</v>
+      </c>
+      <c r="H55">
+        <v>5269.473</v>
+      </c>
+      <c r="I55">
+        <v>76.661000000000001</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>-3.766</v>
+      </c>
+      <c r="N55">
+        <v>1449.5360000000001</v>
+      </c>
+      <c r="O55">
+        <v>1855.4559999999999</v>
+      </c>
+      <c r="P55">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>17.779</v>
+      </c>
+      <c r="R55">
+        <v>41729</v>
+      </c>
+      <c r="S55">
+        <v>9041</v>
+      </c>
+      <c r="T55">
+        <v>3414.0169999999998</v>
+      </c>
+      <c r="U55">
+        <v>298.51900000000001</v>
+      </c>
+      <c r="V55">
+        <v>287.87599999999998</v>
+      </c>
+      <c r="W55">
+        <v>0</v>
+      </c>
+      <c r="X55">
+        <v>4.2080000000000002</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>-219.67699999999999</v>
+      </c>
+      <c r="AA55">
+        <v>55.939</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41820</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>53.024000000000001</v>
+      </c>
+      <c r="D56">
+        <v>781.56</v>
+      </c>
+      <c r="E56">
+        <v>506.40899999999999</v>
+      </c>
+      <c r="F56">
+        <v>660.69899999999996</v>
+      </c>
+      <c r="G56">
+        <v>1541.57</v>
+      </c>
+      <c r="H56">
+        <v>5249.2160000000003</v>
+      </c>
+      <c r="I56">
+        <v>79.620999999999995</v>
+      </c>
+      <c r="J56">
+        <v>1277.289</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>1475.595</v>
+      </c>
+      <c r="O56">
+        <v>3145.319</v>
+      </c>
+      <c r="P56">
+        <v>1277.289</v>
+      </c>
+      <c r="Q56">
+        <v>-19.117000000000001</v>
+      </c>
+      <c r="R56">
+        <v>41820</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>2103.8969999999999</v>
+      </c>
+      <c r="U56">
+        <v>279.40199999999999</v>
+      </c>
+      <c r="V56">
+        <v>203.54</v>
+      </c>
+      <c r="W56">
+        <v>0</v>
+      </c>
+      <c r="X56">
+        <v>-177.50899999999999</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>17.567</v>
+      </c>
+      <c r="AA56">
+        <v>53.024000000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41912</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>47.531999999999996</v>
+      </c>
+      <c r="D57">
+        <v>758.99400000000003</v>
+      </c>
+      <c r="E57">
+        <v>465.55799999999999</v>
+      </c>
+      <c r="F57">
+        <v>646.96799999999996</v>
+      </c>
+      <c r="G57">
+        <v>1444.71</v>
+      </c>
+      <c r="H57">
+        <v>5231.4769999999999</v>
+      </c>
+      <c r="I57">
+        <v>85.802000000000007</v>
+      </c>
+      <c r="J57">
+        <v>1285.0920000000001</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>1462.4469999999999</v>
+      </c>
+      <c r="O57">
+        <v>3135.1390000000001</v>
+      </c>
+      <c r="P57">
+        <v>1285.0920000000001</v>
+      </c>
+      <c r="Q57">
+        <v>-36.615000000000002</v>
+      </c>
+      <c r="R57">
+        <v>41912</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>2096.3380000000002</v>
+      </c>
+      <c r="U57">
+        <v>242.78700000000001</v>
+      </c>
+      <c r="V57">
+        <v>164.13399999999999</v>
+      </c>
+      <c r="W57">
+        <v>0</v>
+      </c>
+      <c r="X57">
+        <v>-82.227999999999994</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>-62.64</v>
+      </c>
+      <c r="AA57">
+        <v>47.531999999999996</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>95.227999999999994</v>
+      </c>
+      <c r="D58">
+        <v>851.48299999999995</v>
+      </c>
+      <c r="E58">
+        <v>674.40099999999995</v>
+      </c>
+      <c r="F58">
+        <v>720.59699999999998</v>
+      </c>
+      <c r="G58">
+        <v>1688.3240000000001</v>
+      </c>
+      <c r="H58">
+        <v>5512.0069999999996</v>
+      </c>
+      <c r="I58">
+        <v>79.884</v>
+      </c>
+      <c r="J58">
+        <v>1292.953</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>1590.1089999999999</v>
+      </c>
+      <c r="O58">
+        <v>3338.3620000000001</v>
+      </c>
+      <c r="P58">
+        <v>1292.953</v>
+      </c>
+      <c r="Q58">
+        <v>17.361999999999998</v>
+      </c>
+      <c r="R58">
+        <v>42004</v>
+      </c>
+      <c r="S58">
+        <v>10081</v>
+      </c>
+      <c r="T58">
+        <v>2173.645</v>
+      </c>
+      <c r="U58">
+        <v>260.149</v>
+      </c>
+      <c r="V58">
+        <v>190.43100000000001</v>
+      </c>
+      <c r="W58">
+        <v>0</v>
+      </c>
+      <c r="X58">
+        <v>-37.139000000000003</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>-24.555</v>
+      </c>
+      <c r="AA58">
+        <v>95.227999999999994</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42094</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>28.887</v>
+      </c>
+      <c r="D59">
+        <v>760.80200000000002</v>
+      </c>
+      <c r="E59">
+        <v>438.17700000000002</v>
+      </c>
+      <c r="F59">
+        <v>646.928</v>
+      </c>
+      <c r="G59">
+        <v>1668.6559999999999</v>
+      </c>
+      <c r="H59">
+        <v>5454.6360000000004</v>
+      </c>
+      <c r="I59">
+        <v>81.108999999999995</v>
+      </c>
+      <c r="J59">
+        <v>1300.8720000000001</v>
+      </c>
+      <c r="K59">
+        <v>95</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>-3.1749999999999998</v>
+      </c>
+      <c r="N59">
+        <v>1633.9380000000001</v>
+      </c>
+      <c r="O59">
+        <v>3354.3049999999998</v>
+      </c>
+      <c r="P59">
+        <v>1395.8720000000001</v>
+      </c>
+      <c r="Q59">
+        <v>142.78399999999999</v>
+      </c>
+      <c r="R59">
+        <v>42094</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>2100.3310000000001</v>
+      </c>
+      <c r="U59">
+        <v>402.93299999999999</v>
+      </c>
+      <c r="V59">
+        <v>291.87099999999998</v>
+      </c>
+      <c r="W59">
+        <v>0</v>
+      </c>
+      <c r="X59">
+        <v>-42.933</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>37.853000000000002</v>
+      </c>
+      <c r="AA59">
+        <v>28.887</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42185</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>103.27500000000001</v>
+      </c>
+      <c r="D60">
+        <v>796.75900000000001</v>
+      </c>
+      <c r="E60">
+        <v>500.976</v>
+      </c>
+      <c r="F60">
+        <v>682.73599999999999</v>
+      </c>
+      <c r="G60">
+        <v>1589.2829999999999</v>
+      </c>
+      <c r="H60">
+        <v>5501.9750000000004</v>
+      </c>
+      <c r="I60">
+        <v>81.965999999999994</v>
+      </c>
+      <c r="J60">
+        <v>1308.8520000000001</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>1524.318</v>
+      </c>
+      <c r="O60">
+        <v>3277.14</v>
+      </c>
+      <c r="P60">
+        <v>1308.8520000000001</v>
+      </c>
+      <c r="Q60">
+        <v>-40.619999999999997</v>
+      </c>
+      <c r="R60">
+        <v>42185</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>2224.835</v>
+      </c>
+      <c r="U60">
+        <v>362.31299999999999</v>
+      </c>
+      <c r="V60">
+        <v>201.14699999999999</v>
+      </c>
+      <c r="W60">
+        <v>0</v>
+      </c>
+      <c r="X60">
+        <v>-119.746</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>81.549000000000007</v>
+      </c>
+      <c r="AA60">
+        <v>103.27500000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42277</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>55.924999999999997</v>
+      </c>
+      <c r="D61">
+        <v>813.27</v>
+      </c>
+      <c r="E61">
+        <v>467.815</v>
+      </c>
+      <c r="F61">
+        <v>687.11599999999999</v>
+      </c>
+      <c r="G61">
+        <v>1737.1379999999999</v>
+      </c>
+      <c r="H61">
+        <v>5405.4830000000002</v>
+      </c>
+      <c r="I61">
+        <v>143.29900000000001</v>
+      </c>
+      <c r="J61">
+        <v>1316.8920000000001</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>1547.5419999999999</v>
+      </c>
+      <c r="O61">
+        <v>3320.7910000000002</v>
+      </c>
+      <c r="P61">
+        <v>1316.8920000000001</v>
+      </c>
+      <c r="Q61">
+        <v>165.28100000000001</v>
+      </c>
+      <c r="R61">
+        <v>42277</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>2084.692</v>
+      </c>
+      <c r="U61">
+        <v>527.59400000000005</v>
+      </c>
+      <c r="V61">
+        <v>259.79500000000002</v>
+      </c>
+      <c r="W61">
+        <v>0</v>
+      </c>
+      <c r="X61">
+        <v>-193.73699999999999</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>145.55500000000001</v>
+      </c>
+      <c r="AA61">
+        <v>55.924999999999997</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>131.274</v>
+      </c>
+      <c r="D62">
+        <v>904.76300000000003</v>
+      </c>
+      <c r="E62">
+        <v>669.27599999999995</v>
+      </c>
+      <c r="F62">
+        <v>775.63300000000004</v>
+      </c>
+      <c r="G62">
+        <v>1683.951</v>
+      </c>
+      <c r="H62">
+        <v>5467.5169999999998</v>
+      </c>
+      <c r="I62">
+        <v>95.396000000000001</v>
+      </c>
+      <c r="J62">
+        <v>1311.0709999999999</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>1680.9690000000001</v>
+      </c>
+      <c r="O62">
+        <v>3494.0709999999999</v>
+      </c>
+      <c r="P62">
+        <v>1311.0709999999999</v>
+      </c>
+      <c r="Q62">
+        <v>-159.07599999999999</v>
+      </c>
+      <c r="R62">
+        <v>42369</v>
+      </c>
+      <c r="S62">
+        <v>9500</v>
+      </c>
+      <c r="T62">
+        <v>1973.4459999999999</v>
+      </c>
+      <c r="U62">
+        <v>368.51799999999997</v>
+      </c>
+      <c r="V62">
+        <v>281.73500000000001</v>
+      </c>
+      <c r="W62">
+        <v>0</v>
+      </c>
+      <c r="X62">
+        <v>-335.03500000000003</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>-58.97</v>
+      </c>
+      <c r="AA62">
+        <v>131.274</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>83.462999999999994</v>
+      </c>
+      <c r="D63">
+        <v>658.77300000000002</v>
+      </c>
+      <c r="E63">
+        <v>450</v>
+      </c>
+      <c r="F63">
+        <v>573.01900000000001</v>
+      </c>
+      <c r="G63">
+        <v>1787.57</v>
+      </c>
+      <c r="H63">
+        <v>5518.6890000000003</v>
+      </c>
+      <c r="I63">
+        <v>85.49</v>
+      </c>
+      <c r="J63">
+        <v>1320.24</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>1624.2639999999999</v>
+      </c>
+      <c r="O63">
+        <v>3450.6089999999999</v>
+      </c>
+      <c r="P63">
+        <v>1320.24</v>
+      </c>
+      <c r="Q63">
+        <v>144.78800000000001</v>
+      </c>
+      <c r="R63">
+        <v>42460</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>2068.08</v>
+      </c>
+      <c r="U63">
+        <v>513.30600000000004</v>
+      </c>
+      <c r="V63">
+        <v>339.96499999999997</v>
+      </c>
+      <c r="W63">
+        <v>0</v>
+      </c>
+      <c r="X63">
+        <v>-39.204000000000001</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>-93.231999999999999</v>
+      </c>
+      <c r="AA63">
+        <v>83.462999999999994</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>120.898</v>
+      </c>
+      <c r="D64">
+        <v>673.98699999999997</v>
+      </c>
+      <c r="E64">
+        <v>504.42</v>
+      </c>
+      <c r="F64">
+        <v>581.18600000000004</v>
+      </c>
+      <c r="G64">
+        <v>2001.7909999999999</v>
+      </c>
+      <c r="H64">
+        <v>5714.2139999999999</v>
+      </c>
+      <c r="I64">
+        <v>72.638999999999996</v>
+      </c>
+      <c r="J64">
+        <v>1329.4780000000001</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>1626.683</v>
+      </c>
+      <c r="O64">
+        <v>3472.1689999999999</v>
+      </c>
+      <c r="P64">
+        <v>1329.4780000000001</v>
+      </c>
+      <c r="Q64">
+        <v>152.92599999999999</v>
+      </c>
+      <c r="R64">
+        <v>42551</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>2242.0450000000001</v>
+      </c>
+      <c r="U64">
+        <v>666.23199999999997</v>
+      </c>
+      <c r="V64">
+        <v>228.36199999999999</v>
+      </c>
+      <c r="W64">
+        <v>0</v>
+      </c>
+      <c r="X64">
+        <v>7.54</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>-45.234000000000002</v>
+      </c>
+      <c r="AA64">
+        <v>120.898</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>131.90100000000001</v>
+      </c>
+      <c r="D65">
+        <v>668.73599999999999</v>
+      </c>
+      <c r="E65">
+        <v>475.08499999999998</v>
+      </c>
+      <c r="F65">
+        <v>585.34</v>
+      </c>
+      <c r="G65">
+        <v>2272.3870000000002</v>
+      </c>
+      <c r="H65">
+        <v>5922.5029999999997</v>
+      </c>
+      <c r="I65">
+        <v>85.655000000000001</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>2949.826</v>
+      </c>
+      <c r="O65">
+        <v>3570.7669999999998</v>
+      </c>
+      <c r="P65">
+        <v>1338.7819999999999</v>
+      </c>
+      <c r="Q65">
+        <v>642.45100000000002</v>
+      </c>
+      <c r="R65">
+        <v>42643</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>2351.7359999999999</v>
+      </c>
+      <c r="U65">
+        <v>1308.683</v>
+      </c>
+      <c r="V65">
+        <v>288.45600000000002</v>
+      </c>
+      <c r="W65">
+        <v>0</v>
+      </c>
+      <c r="X65">
+        <v>-0.61499999999999999</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>394.58</v>
+      </c>
+      <c r="AA65">
+        <v>131.90100000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>199.85</v>
+      </c>
+      <c r="D66">
+        <v>734.58399999999995</v>
+      </c>
+      <c r="E66">
+        <v>681.20600000000002</v>
+      </c>
+      <c r="F66">
+        <v>647.06399999999996</v>
+      </c>
+      <c r="G66">
+        <v>2561.277</v>
+      </c>
+      <c r="H66">
+        <v>6390.2269999999999</v>
+      </c>
+      <c r="I66">
+        <v>72.724000000000004</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>3098.3490000000002</v>
+      </c>
+      <c r="O66">
+        <v>3781.5</v>
+      </c>
+      <c r="P66">
+        <v>1348.1559999999999</v>
+      </c>
+      <c r="Q66">
+        <v>-351.72699999999998</v>
+      </c>
+      <c r="R66">
+        <v>42735</v>
+      </c>
+      <c r="S66">
+        <v>9600</v>
+      </c>
+      <c r="T66">
+        <v>2608.7269999999999</v>
+      </c>
+      <c r="U66">
+        <v>836.09500000000003</v>
+      </c>
+      <c r="V66">
+        <v>259.04700000000003</v>
+      </c>
+      <c r="W66">
+        <v>0</v>
+      </c>
+      <c r="X66">
+        <v>-5.7519999999999998</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>-567.745</v>
+      </c>
+      <c r="AA66">
+        <v>199.85</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>27.620999999999999</v>
+      </c>
+      <c r="D67">
+        <v>662.67700000000002</v>
+      </c>
+      <c r="E67">
+        <v>485.76900000000001</v>
+      </c>
+      <c r="F67">
+        <v>573.30700000000002</v>
+      </c>
+      <c r="G67">
+        <v>2085.1570000000002</v>
+      </c>
+      <c r="H67">
+        <v>5360.5659999999998</v>
+      </c>
+      <c r="I67">
+        <v>64.075000000000003</v>
+      </c>
+      <c r="J67">
+        <v>1357.58</v>
+      </c>
+      <c r="K67">
+        <v>100</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>-4</v>
+      </c>
+      <c r="N67">
+        <v>1630.9870000000001</v>
+      </c>
+      <c r="O67">
+        <v>3626.8240000000001</v>
+      </c>
+      <c r="P67">
+        <v>1457.58</v>
+      </c>
+      <c r="Q67">
+        <v>-48.978999999999999</v>
+      </c>
+      <c r="R67">
+        <v>42825</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>1733.742</v>
+      </c>
+      <c r="U67">
+        <v>907.97699999999998</v>
+      </c>
+      <c r="V67">
+        <v>249.28399999999999</v>
+      </c>
+      <c r="W67">
+        <v>0</v>
+      </c>
+      <c r="X67">
+        <v>-466.48899999999998</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>249.476</v>
+      </c>
+      <c r="AA67">
+        <v>27.620999999999999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>108.82899999999999</v>
+      </c>
+      <c r="D68">
+        <v>693.22699999999998</v>
+      </c>
+      <c r="E68">
+        <v>541.31500000000005</v>
+      </c>
+      <c r="F68">
+        <v>596.32500000000005</v>
+      </c>
+      <c r="G68">
+        <v>2086.4870000000001</v>
+      </c>
+      <c r="H68">
+        <v>5430.9089999999997</v>
+      </c>
+      <c r="I68">
+        <v>65.265000000000001</v>
+      </c>
+      <c r="J68">
+        <v>1367.0920000000001</v>
+      </c>
+      <c r="K68">
+        <v>30</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>1546.489</v>
+      </c>
+      <c r="O68">
+        <v>3549.2080000000001</v>
+      </c>
+      <c r="P68">
+        <v>1397.0920000000001</v>
+      </c>
+      <c r="Q68">
+        <v>-63.206000000000003</v>
+      </c>
+      <c r="R68">
+        <v>42916</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>1881.701</v>
+      </c>
+      <c r="U68">
+        <v>844.77099999999996</v>
+      </c>
+      <c r="V68">
+        <v>150.47499999999999</v>
+      </c>
+      <c r="W68">
+        <v>0</v>
+      </c>
+      <c r="X68">
+        <v>-95.090999999999994</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>-98.052000000000007</v>
+      </c>
+      <c r="AA68">
+        <v>108.82899999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>126.72</v>
+      </c>
+      <c r="D69">
+        <v>690.92499999999995</v>
+      </c>
+      <c r="E69">
+        <v>464.80099999999999</v>
+      </c>
+      <c r="F69">
+        <v>602.55200000000002</v>
+      </c>
+      <c r="G69">
+        <v>2151.6729999999998</v>
+      </c>
+      <c r="H69">
+        <v>5499.3959999999997</v>
+      </c>
+      <c r="I69">
+        <v>56.771999999999998</v>
+      </c>
+      <c r="J69">
+        <v>1376.673</v>
+      </c>
+      <c r="K69">
+        <v>40</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>1498.6489999999999</v>
+      </c>
+      <c r="O69">
+        <v>3503.7849999999999</v>
+      </c>
+      <c r="P69">
+        <v>1416.673</v>
+      </c>
+      <c r="Q69">
+        <v>96.097999999999999</v>
+      </c>
+      <c r="R69">
+        <v>43008</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>1995.6110000000001</v>
+      </c>
+      <c r="U69">
+        <v>940.86900000000003</v>
+      </c>
+      <c r="V69">
+        <v>254.75899999999999</v>
+      </c>
+      <c r="W69">
+        <v>0</v>
+      </c>
+      <c r="X69">
+        <v>-74.984999999999999</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>-61.238999999999997</v>
+      </c>
+      <c r="AA69">
+        <v>126.72</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>-283.88900000000001</v>
+      </c>
+      <c r="D70">
+        <v>777.85699999999997</v>
+      </c>
+      <c r="E70">
+        <v>712.53499999999997</v>
+      </c>
+      <c r="F70">
+        <v>678.54399999999998</v>
+      </c>
+      <c r="G70">
+        <v>2621.4229999999998</v>
+      </c>
+      <c r="H70">
+        <v>5820.1760000000004</v>
+      </c>
+      <c r="I70">
+        <v>66.893000000000001</v>
+      </c>
+      <c r="J70">
+        <v>2127.4740000000002</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>1687.079</v>
+      </c>
+      <c r="O70">
+        <v>4827.7150000000001</v>
+      </c>
+      <c r="P70">
+        <v>2127.4740000000002</v>
+      </c>
+      <c r="Q70">
+        <v>174.261</v>
+      </c>
+      <c r="R70">
+        <v>43100</v>
+      </c>
+      <c r="S70">
+        <v>7500</v>
+      </c>
+      <c r="T70">
+        <v>992.46100000000001</v>
+      </c>
+      <c r="U70">
+        <v>1115.1300000000001</v>
+      </c>
+      <c r="V70">
+        <v>253.75800000000001</v>
+      </c>
+      <c r="W70">
+        <v>0</v>
+      </c>
+      <c r="X70">
+        <v>-57.802</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>-3.8090000000000002</v>
+      </c>
+      <c r="AA70">
+        <v>-283.88900000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>144.25899999999999</v>
+      </c>
+      <c r="D71">
+        <v>697.19200000000001</v>
+      </c>
+      <c r="E71">
+        <v>427.89</v>
+      </c>
+      <c r="F71">
+        <v>599.93499999999995</v>
+      </c>
+      <c r="G71">
+        <v>2075.41</v>
+      </c>
+      <c r="H71">
+        <v>5137.4769999999999</v>
+      </c>
+      <c r="I71">
+        <v>68.701999999999998</v>
+      </c>
+      <c r="J71">
+        <v>2137.4180000000001</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>-5.6740000000000004</v>
+      </c>
+      <c r="N71">
+        <v>1521.6590000000001</v>
+      </c>
+      <c r="O71">
+        <v>4614.0990000000002</v>
+      </c>
+      <c r="P71">
+        <v>2137.4180000000001</v>
+      </c>
+      <c r="Q71">
+        <v>-160.43299999999999</v>
+      </c>
+      <c r="R71">
+        <v>43190</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>523.37800000000004</v>
+      </c>
+      <c r="U71">
+        <v>954.697</v>
+      </c>
+      <c r="V71">
+        <v>357.85500000000002</v>
+      </c>
+      <c r="W71">
+        <v>0</v>
+      </c>
+      <c r="X71">
+        <v>-769.20600000000002</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>328.11900000000003</v>
+      </c>
+      <c r="AA71">
+        <v>144.25899999999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>106.833</v>
+      </c>
+      <c r="D72">
+        <v>742.36500000000001</v>
+      </c>
+      <c r="E72">
+        <v>528.38599999999997</v>
+      </c>
+      <c r="F72">
+        <v>645.13499999999999</v>
+      </c>
+      <c r="G72">
+        <v>2266.3910000000001</v>
+      </c>
+      <c r="H72">
+        <v>5366.0619999999999</v>
+      </c>
+      <c r="I72">
+        <v>86.533000000000001</v>
+      </c>
+      <c r="J72">
+        <v>741.27700000000004</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>3014.2579999999998</v>
+      </c>
+      <c r="O72">
+        <v>4729.8860000000004</v>
+      </c>
+      <c r="P72">
+        <v>2147.4340000000002</v>
+      </c>
+      <c r="Q72">
+        <v>67.010999999999996</v>
+      </c>
+      <c r="R72">
+        <v>43281</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>636.17600000000004</v>
+      </c>
+      <c r="U72">
+        <v>1021.708</v>
+      </c>
+      <c r="V72">
+        <v>170.18299999999999</v>
+      </c>
+      <c r="W72">
+        <v>0</v>
+      </c>
+      <c r="X72">
+        <v>-51.268999999999998</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>-28.562999999999999</v>
+      </c>
+      <c r="AA72">
+        <v>106.833</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>158.857</v>
+      </c>
+      <c r="D73">
+        <v>732.476</v>
+      </c>
+      <c r="E73">
+        <v>413.50900000000001</v>
+      </c>
+      <c r="F73">
+        <v>640.18799999999999</v>
+      </c>
+      <c r="G73">
+        <v>2497.9609999999998</v>
+      </c>
+      <c r="H73">
+        <v>5436.527</v>
+      </c>
+      <c r="I73">
+        <v>71.11</v>
+      </c>
+      <c r="J73">
+        <v>741.55100000000004</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>3023.1610000000001</v>
+      </c>
+      <c r="O73">
+        <v>4683.3069999999998</v>
+      </c>
+      <c r="P73">
+        <v>2157.5210000000002</v>
+      </c>
+      <c r="Q73">
+        <v>183.47399999999999</v>
+      </c>
+      <c r="R73">
+        <v>43373</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>753.22</v>
+      </c>
+      <c r="U73">
+        <v>1205.182</v>
+      </c>
+      <c r="V73">
+        <v>300.89800000000002</v>
+      </c>
+      <c r="W73">
+        <v>0</v>
+      </c>
+      <c r="X73">
+        <v>-119.777</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>27.187000000000001</v>
+      </c>
+      <c r="AA73">
+        <v>158.857</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>165.71799999999999</v>
+      </c>
+      <c r="D74">
+        <v>801.87</v>
+      </c>
+      <c r="E74">
+        <v>688.42</v>
+      </c>
+      <c r="F74">
+        <v>701.90099999999995</v>
+      </c>
+      <c r="G74">
+        <v>2086.9009999999998</v>
+      </c>
+      <c r="H74">
+        <v>5136.049</v>
+      </c>
+      <c r="I74">
+        <v>75.551000000000002</v>
+      </c>
+      <c r="J74">
+        <v>741.82500000000005</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>2911.14</v>
+      </c>
+      <c r="O74">
+        <v>4584.53</v>
+      </c>
+      <c r="P74">
+        <v>1897.27</v>
+      </c>
+      <c r="Q74">
+        <v>-586.41600000000005</v>
+      </c>
+      <c r="R74">
+        <v>43465</v>
+      </c>
+      <c r="S74">
+        <v>8200</v>
+      </c>
+      <c r="T74">
+        <v>551.51900000000001</v>
+      </c>
+      <c r="U74">
+        <v>618.76599999999996</v>
+      </c>
+      <c r="V74">
+        <v>206.40899999999999</v>
+      </c>
+      <c r="W74">
+        <v>-46.798999999999999</v>
+      </c>
+      <c r="X74">
+        <v>-717.78899999999999</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>130.13200000000001</v>
+      </c>
+      <c r="AA74">
+        <v>165.71799999999999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>110.348</v>
+      </c>
+      <c r="D75">
+        <v>719.14300000000003</v>
+      </c>
+      <c r="E75">
+        <v>482.64699999999999</v>
+      </c>
+      <c r="F75">
+        <v>621.971</v>
+      </c>
+      <c r="G75">
+        <v>2453.0100000000002</v>
+      </c>
+      <c r="H75">
+        <v>5167.4560000000001</v>
+      </c>
+      <c r="I75">
+        <v>81.475999999999999</v>
+      </c>
+      <c r="J75">
+        <v>742.1</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>2842.768</v>
+      </c>
+      <c r="O75">
+        <v>4612.5780000000004</v>
+      </c>
+      <c r="P75">
+        <v>2154.2550000000001</v>
+      </c>
+      <c r="Q75">
+        <v>993.91300000000001</v>
+      </c>
+      <c r="R75">
+        <v>43555</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>554.87800000000004</v>
+      </c>
+      <c r="U75">
+        <v>1612.6790000000001</v>
+      </c>
+      <c r="V75">
+        <v>267.56599999999997</v>
+      </c>
+      <c r="W75">
+        <v>-46.024000000000001</v>
+      </c>
+      <c r="X75">
+        <v>-157.49100000000001</v>
+      </c>
+      <c r="Y75">
+        <v>203.58</v>
+      </c>
+      <c r="Z75">
+        <v>900.18499999999995</v>
+      </c>
+      <c r="AA75">
+        <v>110.348</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>93.495000000000005</v>
+      </c>
+      <c r="D76">
+        <v>748.697</v>
+      </c>
+      <c r="E76">
+        <v>530.10199999999998</v>
+      </c>
+      <c r="F76">
+        <v>648.00199999999995</v>
+      </c>
+      <c r="G76">
+        <v>1271.7139999999999</v>
+      </c>
+      <c r="H76">
+        <v>3935.1959999999999</v>
+      </c>
+      <c r="I76">
+        <v>96.768000000000001</v>
+      </c>
+      <c r="J76">
+        <v>742.48199999999997</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>1681.5260000000001</v>
+      </c>
+      <c r="O76">
+        <v>3427.174</v>
+      </c>
+      <c r="P76">
+        <v>989.03899999999999</v>
+      </c>
+      <c r="Q76">
+        <v>-1107.9590000000001</v>
+      </c>
+      <c r="R76">
+        <v>43646</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>508.02199999999999</v>
+      </c>
+      <c r="U76">
+        <v>504.72</v>
+      </c>
+      <c r="V76">
+        <v>162.34700000000001</v>
+      </c>
+      <c r="W76">
+        <v>-45.826999999999998</v>
+      </c>
+      <c r="X76">
+        <v>-1419.4090000000001</v>
+      </c>
+      <c r="Y76">
+        <v>200.084</v>
+      </c>
+      <c r="Z76">
+        <v>171.57</v>
+      </c>
+      <c r="AA76">
+        <v>93.495000000000005</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>270.85700000000003</v>
+      </c>
+      <c r="D77">
+        <v>732.90099999999995</v>
+      </c>
+      <c r="E77">
+        <v>426.84199999999998</v>
+      </c>
+      <c r="F77">
+        <v>628.60500000000002</v>
+      </c>
+      <c r="G77">
+        <v>1194</v>
+      </c>
+      <c r="H77">
+        <v>4031.0929999999998</v>
+      </c>
+      <c r="I77">
+        <v>72.659000000000006</v>
+      </c>
+      <c r="J77">
+        <v>742.70399999999995</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>1613.6849999999999</v>
+      </c>
+      <c r="O77">
+        <v>3318.1819999999998</v>
+      </c>
+      <c r="P77">
+        <v>1011.0650000000001</v>
+      </c>
+      <c r="Q77">
+        <v>-10.885999999999999</v>
+      </c>
+      <c r="R77">
+        <v>43738</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>712.91099999999994</v>
+      </c>
+      <c r="U77">
+        <v>493.834</v>
+      </c>
+      <c r="V77">
+        <v>147.10599999999999</v>
+      </c>
+      <c r="W77">
+        <v>-45.372999999999998</v>
+      </c>
+      <c r="X77">
+        <v>-153.51900000000001</v>
+      </c>
+      <c r="Y77">
+        <v>221.03200000000001</v>
+      </c>
+      <c r="Z77">
+        <v>12.221</v>
+      </c>
+      <c r="AA77">
+        <v>270.85700000000003</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>207.113</v>
+      </c>
+      <c r="D78">
+        <v>809.82299999999998</v>
+      </c>
+      <c r="E78">
+        <v>732.55899999999997</v>
+      </c>
+      <c r="F78">
+        <v>699.279</v>
+      </c>
+      <c r="G78">
+        <v>1512.732</v>
+      </c>
+      <c r="H78">
+        <v>4388.9260000000004</v>
+      </c>
+      <c r="I78">
+        <v>84.537999999999997</v>
+      </c>
+      <c r="J78">
+        <v>742.92600000000004</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>1828.587</v>
+      </c>
+      <c r="O78">
+        <v>3551.27</v>
+      </c>
+      <c r="P78">
+        <v>999.33299999999997</v>
+      </c>
+      <c r="Q78">
+        <v>51.927</v>
+      </c>
+      <c r="R78">
+        <v>43830</v>
+      </c>
+      <c r="S78">
+        <v>8400</v>
+      </c>
+      <c r="T78">
+        <v>837.65599999999995</v>
+      </c>
+      <c r="U78">
+        <v>545.76099999999997</v>
+      </c>
+      <c r="V78">
+        <v>206.05099999999999</v>
+      </c>
+      <c r="W78">
+        <v>-45.722999999999999</v>
+      </c>
+      <c r="X78">
+        <v>-160.09100000000001</v>
+      </c>
+      <c r="Y78">
+        <v>209.38200000000001</v>
+      </c>
+      <c r="Z78">
+        <v>17.076000000000001</v>
+      </c>
+      <c r="AA78">
+        <v>207.113</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>181.22200000000001</v>
+      </c>
+      <c r="D79">
+        <v>860.94500000000005</v>
+      </c>
+      <c r="E79">
+        <v>700.02599999999995</v>
+      </c>
+      <c r="F79">
+        <v>753.649</v>
+      </c>
+      <c r="G79">
+        <v>1461.0530000000001</v>
+      </c>
+      <c r="H79">
+        <v>4331.2269999999999</v>
+      </c>
+      <c r="I79">
+        <v>105.218</v>
+      </c>
+      <c r="J79">
+        <v>1730.961</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>-750</v>
+      </c>
+      <c r="N79">
+        <v>1874.049</v>
+      </c>
+      <c r="O79">
+        <v>4550.1559999999999</v>
+      </c>
+      <c r="P79">
+        <v>1981.89</v>
+      </c>
+      <c r="Q79">
+        <v>-20.88</v>
+      </c>
+      <c r="R79">
+        <v>43921</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>-218.929</v>
+      </c>
+      <c r="U79">
+        <v>524.88099999999997</v>
+      </c>
+      <c r="V79">
+        <v>284.24700000000001</v>
+      </c>
+      <c r="W79">
+        <v>-42.838999999999999</v>
+      </c>
+      <c r="X79">
+        <v>-310.036</v>
+      </c>
+      <c r="Y79">
+        <v>201.33600000000001</v>
+      </c>
+      <c r="Z79">
+        <v>21.335000000000001</v>
+      </c>
+      <c r="AA79">
+        <v>181.22200000000001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>112.90600000000001</v>
+      </c>
+      <c r="D80">
+        <v>798.92899999999997</v>
+      </c>
+      <c r="E80">
+        <v>614.15</v>
+      </c>
+      <c r="F80">
+        <v>684.99199999999996</v>
+      </c>
+      <c r="G80">
+        <v>1685.9770000000001</v>
+      </c>
+      <c r="H80">
+        <v>4548.1139999999996</v>
+      </c>
+      <c r="I80">
+        <v>122.154</v>
+      </c>
+      <c r="J80">
+        <v>1731.5139999999999</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>1992.5329999999999</v>
+      </c>
+      <c r="O80">
+        <v>4641.71</v>
+      </c>
+      <c r="P80">
+        <v>1930.2260000000001</v>
+      </c>
+      <c r="Q80">
+        <v>30.190999999999999</v>
+      </c>
+      <c r="R80">
+        <v>44012</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>-93.596000000000004</v>
+      </c>
+      <c r="U80">
+        <v>555.072</v>
+      </c>
+      <c r="V80">
+        <v>419.16899999999998</v>
+      </c>
+      <c r="W80">
+        <v>-43.222999999999999</v>
+      </c>
+      <c r="X80">
+        <v>-90.132000000000005</v>
+      </c>
+      <c r="Y80">
+        <v>198.71199999999999</v>
+      </c>
+      <c r="Z80">
+        <v>-287.40499999999997</v>
+      </c>
+      <c r="AA80">
+        <v>112.90600000000001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>98.227000000000004</v>
+      </c>
+      <c r="D81">
+        <v>767.17</v>
+      </c>
+      <c r="E81">
+        <v>586.88199999999995</v>
+      </c>
+      <c r="F81">
+        <v>648.17700000000002</v>
+      </c>
+      <c r="G81">
+        <v>1738.9639999999999</v>
+      </c>
+      <c r="H81">
+        <v>4608.5940000000001</v>
+      </c>
+      <c r="I81">
+        <v>101.339</v>
+      </c>
+      <c r="J81">
+        <v>1732.069</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>1920.827</v>
+      </c>
+      <c r="O81">
+        <v>4539.7939999999999</v>
+      </c>
+      <c r="P81">
+        <v>1927.2619999999999</v>
+      </c>
+      <c r="Q81">
+        <v>13.752000000000001</v>
+      </c>
+      <c r="R81">
+        <v>44104</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>68.8</v>
+      </c>
+      <c r="U81">
+        <v>568.82399999999996</v>
+      </c>
+      <c r="V81">
+        <v>112.357</v>
+      </c>
+      <c r="W81">
+        <v>-43.045999999999999</v>
+      </c>
+      <c r="X81">
+        <v>-46.738</v>
+      </c>
+      <c r="Y81">
+        <v>195.19300000000001</v>
+      </c>
+      <c r="Z81">
+        <v>-44.284999999999997</v>
+      </c>
+      <c r="AA81">
+        <v>98.227000000000004</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
         <v>112.09099999999999</v>
       </c>
-      <c r="D42">
+      <c r="D82">
         <v>809.65599999999995</v>
       </c>
-      <c r="E42">
+      <c r="E82">
         <v>895.30899999999997</v>
       </c>
-      <c r="F42">
+      <c r="F82">
         <v>684.11800000000005</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>1991.106</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>4890.3469999999998</v>
       </c>
-      <c r="I42">
+      <c r="I82">
         <v>92.266000000000005</v>
       </c>
-      <c r="J42">
+      <c r="J82">
         <v>1732.6220000000001</v>
       </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
         <v>2152.4270000000001</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>4778.2039999999997</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>1976.748</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>184.071</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44196</v>
       </c>
-      <c r="S42">
+      <c r="S82">
         <v>9000</v>
       </c>
-      <c r="T42">
+      <c r="T82">
         <v>112.143</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>752.89499999999998</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>120.036</v>
       </c>
-      <c r="W42">
+      <c r="W82">
         <v>-42.898000000000003</v>
       </c>
-      <c r="X42">
+      <c r="X82">
         <v>-148.28200000000001</v>
       </c>
-      <c r="Y42">
+      <c r="Y82">
         <v>195.767</v>
       </c>
-      <c r="Z42">
+      <c r="Z82">
         <v>231.05099999999999</v>
       </c>
-      <c r="AA42">
+      <c r="AA82">
         <v>112.09099999999999</v>
       </c>
     </row>
